--- a/csv.files.xlsx
+++ b/csv.files.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3353,11 +3360,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3369,7 +3375,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -3387,19 +3393,346 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D554"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3420,11 +3753,11 @@
       <c r="C2" t="s">
         <v>562</v>
       </c>
-      <c r="D2" t="n">
-        <v>1058.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3434,11 +3767,11 @@
       <c r="C3" t="s">
         <v>563</v>
       </c>
-      <c r="D3" t="n">
-        <v>611.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3448,11 +3781,11 @@
       <c r="C4" t="s">
         <v>564</v>
       </c>
-      <c r="D4" t="n">
-        <v>888.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3462,11 +3795,11 @@
       <c r="C5" t="s">
         <v>565</v>
       </c>
-      <c r="D5" t="n">
-        <v>457.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3476,11 +3809,11 @@
       <c r="C6" t="s">
         <v>566</v>
       </c>
-      <c r="D6" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3490,11 +3823,11 @@
       <c r="C7" t="s">
         <v>567</v>
       </c>
-      <c r="D7" t="n">
-        <v>2587.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3504,11 +3837,11 @@
       <c r="C8" t="s">
         <v>568</v>
       </c>
-      <c r="D8" t="n">
-        <v>515.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3518,11 +3851,11 @@
       <c r="C9" t="s">
         <v>569</v>
       </c>
-      <c r="D9" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3532,11 +3865,11 @@
       <c r="C10" t="s">
         <v>570</v>
       </c>
-      <c r="D10" t="n">
-        <v>637.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3546,11 +3879,11 @@
       <c r="C11" t="s">
         <v>571</v>
       </c>
-      <c r="D11" t="n">
-        <v>2202.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3560,11 +3893,11 @@
       <c r="C12" t="s">
         <v>572</v>
       </c>
-      <c r="D12" t="n">
-        <v>472.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3574,11 +3907,11 @@
       <c r="C13" t="s">
         <v>573</v>
       </c>
-      <c r="D13" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3588,11 +3921,11 @@
       <c r="C14" t="s">
         <v>574</v>
       </c>
-      <c r="D14" t="n">
-        <v>232.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3602,11 +3935,11 @@
       <c r="C15" t="s">
         <v>575</v>
       </c>
-      <c r="D15" t="n">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3616,11 +3949,11 @@
       <c r="C16" t="s">
         <v>576</v>
       </c>
-      <c r="D16" t="n">
-        <v>344.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3630,11 +3963,11 @@
       <c r="C17" t="s">
         <v>577</v>
       </c>
-      <c r="D17" t="n">
-        <v>183.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="D17">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3644,11 +3977,11 @@
       <c r="C18" t="s">
         <v>578</v>
       </c>
-      <c r="D18" t="n">
-        <v>268.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="D18">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3658,11 +3991,11 @@
       <c r="C19" t="s">
         <v>579</v>
       </c>
-      <c r="D19" t="n">
-        <v>292.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3672,11 +4005,11 @@
       <c r="C20" t="s">
         <v>580</v>
       </c>
-      <c r="D20" t="n">
-        <v>35571.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="D20">
+        <v>35571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3686,11 +4019,11 @@
       <c r="C21" t="s">
         <v>581</v>
       </c>
-      <c r="D21" t="n">
-        <v>3532.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="D21">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3700,11 +4033,11 @@
       <c r="C22" t="s">
         <v>582</v>
       </c>
-      <c r="D22" t="n">
-        <v>461.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3714,11 +4047,11 @@
       <c r="C23" t="s">
         <v>583</v>
       </c>
-      <c r="D23" t="n">
-        <v>876.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="D23">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3728,11 +4061,11 @@
       <c r="C24" t="s">
         <v>584</v>
       </c>
-      <c r="D24" t="n">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="D24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3742,11 +4075,11 @@
       <c r="C25" t="s">
         <v>585</v>
       </c>
-      <c r="D25" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="D25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3756,11 +4089,11 @@
       <c r="C26" t="s">
         <v>586</v>
       </c>
-      <c r="D26" t="n">
-        <v>143.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="D26">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3770,11 +4103,11 @@
       <c r="C27" t="s">
         <v>587</v>
       </c>
-      <c r="D27" t="n">
-        <v>433.0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="D27">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3784,11 +4117,11 @@
       <c r="C28" t="s">
         <v>588</v>
       </c>
-      <c r="D28" t="n">
-        <v>326.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="D28">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3798,11 +4131,11 @@
       <c r="C29" t="s">
         <v>589</v>
       </c>
-      <c r="D29" t="n">
-        <v>2524.0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="D29">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3812,11 +4145,11 @@
       <c r="C30" t="s">
         <v>590</v>
       </c>
-      <c r="D30" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="D30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3826,11 +4159,11 @@
       <c r="C31" t="s">
         <v>591</v>
       </c>
-      <c r="D31" t="n">
-        <v>2853.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="D31">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3840,11 +4173,11 @@
       <c r="C32" t="s">
         <v>592</v>
       </c>
-      <c r="D32" t="n">
-        <v>1099.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -3854,11 +4187,11 @@
       <c r="C33" t="s">
         <v>593</v>
       </c>
-      <c r="D33" t="n">
-        <v>10681.0</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="D33">
+        <v>10681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3868,11 +4201,11 @@
       <c r="C34" t="s">
         <v>594</v>
       </c>
-      <c r="D34" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="D34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3882,11 +4215,11 @@
       <c r="C35" t="s">
         <v>595</v>
       </c>
-      <c r="D35" t="n">
-        <v>207.0</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="D35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3896,11 +4229,11 @@
       <c r="C36" t="s">
         <v>596</v>
       </c>
-      <c r="D36" t="n">
-        <v>3931.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="D36">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3910,11 +4243,11 @@
       <c r="C37" t="s">
         <v>597</v>
       </c>
-      <c r="D37" t="n">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="D37">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3924,11 +4257,11 @@
       <c r="C38" t="s">
         <v>598</v>
       </c>
-      <c r="D38" t="n">
-        <v>265.0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="D38">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3938,11 +4271,11 @@
       <c r="C39" t="s">
         <v>599</v>
       </c>
-      <c r="D39" t="n">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="D39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3952,11 +4285,11 @@
       <c r="C40" t="s">
         <v>600</v>
       </c>
-      <c r="D40" t="n">
-        <v>8296.0</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="D40">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3966,11 +4299,11 @@
       <c r="C41" t="s">
         <v>601</v>
       </c>
-      <c r="D41" t="n">
-        <v>18530.0</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="D41">
+        <v>18530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3980,11 +4313,11 @@
       <c r="C42" t="s">
         <v>602</v>
       </c>
-      <c r="D42" t="n">
-        <v>2150.0</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="D42">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -3994,11 +4327,11 @@
       <c r="C43" t="s">
         <v>603</v>
       </c>
-      <c r="D43" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="D43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -4008,11 +4341,11 @@
       <c r="C44" t="s">
         <v>604</v>
       </c>
-      <c r="D44" t="n">
-        <v>253.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="D44">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -4022,11 +4355,11 @@
       <c r="C45" t="s">
         <v>605</v>
       </c>
-      <c r="D45" t="n">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="D45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -4036,11 +4369,11 @@
       <c r="C46" t="s">
         <v>606</v>
       </c>
-      <c r="D46" t="n">
-        <v>892.0</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="D46">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -4050,11 +4383,11 @@
       <c r="C47" t="s">
         <v>607</v>
       </c>
-      <c r="D47" t="n">
-        <v>4254.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="D47">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -4064,11 +4397,11 @@
       <c r="C48" t="s">
         <v>608</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -4078,11 +4411,11 @@
       <c r="C49" t="s">
         <v>609</v>
       </c>
-      <c r="D49" t="n">
-        <v>386.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="D49">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -4092,11 +4425,11 @@
       <c r="C50" t="s">
         <v>610</v>
       </c>
-      <c r="D50" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="D50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -4106,11 +4439,11 @@
       <c r="C51" t="s">
         <v>611</v>
       </c>
-      <c r="D51" t="n">
-        <v>2821.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="D51">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -4120,11 +4453,11 @@
       <c r="C52" t="s">
         <v>612</v>
       </c>
-      <c r="D52" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="D52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -4134,11 +4467,11 @@
       <c r="C53" t="s">
         <v>613</v>
       </c>
-      <c r="D53" t="n">
-        <v>4500.0</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="D53">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -4148,11 +4481,11 @@
       <c r="C54" t="s">
         <v>614</v>
       </c>
-      <c r="D54" t="n">
-        <v>810.0</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="D54">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -4162,11 +4495,11 @@
       <c r="C55" t="s">
         <v>615</v>
       </c>
-      <c r="D55" t="n">
-        <v>1416.0</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="D55">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -4176,11 +4509,11 @@
       <c r="C56" t="s">
         <v>616</v>
       </c>
-      <c r="D56" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -4190,11 +4523,11 @@
       <c r="C57" t="s">
         <v>617</v>
       </c>
-      <c r="D57" t="n">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="D57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -4204,11 +4537,11 @@
       <c r="C58" t="s">
         <v>618</v>
       </c>
-      <c r="D58" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="D58">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -4218,11 +4551,11 @@
       <c r="C59" t="s">
         <v>619</v>
       </c>
-      <c r="D59" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -4232,11 +4565,11 @@
       <c r="C60" t="s">
         <v>620</v>
       </c>
-      <c r="D60" t="n">
-        <v>2053.0</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="D60">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -4246,11 +4579,11 @@
       <c r="C61" t="s">
         <v>621</v>
       </c>
-      <c r="D61" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="D61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -4260,11 +4593,11 @@
       <c r="C62" t="s">
         <v>622</v>
       </c>
-      <c r="D62" t="n">
-        <v>8703.0</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="D62">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4274,11 +4607,11 @@
       <c r="C63" t="s">
         <v>623</v>
       </c>
-      <c r="D63" t="n">
-        <v>609.0</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="D63">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4288,11 +4621,11 @@
       <c r="C64" t="s">
         <v>624</v>
       </c>
-      <c r="D64" t="n">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="D64">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4302,11 +4635,11 @@
       <c r="C65" t="s">
         <v>625</v>
       </c>
-      <c r="D65" t="n">
-        <v>2734.0</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="D65">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4316,11 +4649,11 @@
       <c r="C66" t="s">
         <v>626</v>
       </c>
-      <c r="D66" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -4330,11 +4663,11 @@
       <c r="C67" t="s">
         <v>627</v>
       </c>
-      <c r="D67" t="n">
-        <v>5242.0</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="D67">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4344,11 +4677,11 @@
       <c r="C68" t="s">
         <v>628</v>
       </c>
-      <c r="D68" t="n">
-        <v>521.0</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="D68">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4358,11 +4691,11 @@
       <c r="C69" t="s">
         <v>629</v>
       </c>
-      <c r="D69" t="n">
-        <v>322.0</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="D69">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -4372,11 +4705,11 @@
       <c r="C70" t="s">
         <v>630</v>
       </c>
-      <c r="D70" t="n">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="D70">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -4386,11 +4719,11 @@
       <c r="C71" t="s">
         <v>631</v>
       </c>
-      <c r="D71" t="n">
-        <v>149.0</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="D71">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -4400,11 +4733,11 @@
       <c r="C72" t="s">
         <v>632</v>
       </c>
-      <c r="D72" t="n">
-        <v>1223.0</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="D72">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -4414,11 +4747,11 @@
       <c r="C73" t="s">
         <v>633</v>
       </c>
-      <c r="D73" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="D73">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -4428,11 +4761,11 @@
       <c r="C74" t="s">
         <v>634</v>
       </c>
-      <c r="D74" t="n">
-        <v>19187.0</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="D74">
+        <v>19187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -4442,11 +4775,11 @@
       <c r="C75" t="s">
         <v>635</v>
       </c>
-      <c r="D75" t="n">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="D75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -4456,11 +4789,11 @@
       <c r="C76" t="s">
         <v>636</v>
       </c>
-      <c r="D76" t="n">
-        <v>1455.0</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="D76">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -4470,11 +4803,11 @@
       <c r="C77" t="s">
         <v>637</v>
       </c>
-      <c r="D77" t="n">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="D77">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -4484,11 +4817,11 @@
       <c r="C78" t="s">
         <v>638</v>
       </c>
-      <c r="D78" t="n">
-        <v>1008.0</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="D78">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -4498,11 +4831,11 @@
       <c r="C79" t="s">
         <v>639</v>
       </c>
-      <c r="D79" t="n">
-        <v>1777.0</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="D79">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -4512,11 +4845,11 @@
       <c r="C80" t="s">
         <v>640</v>
       </c>
-      <c r="D80" t="n">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="D80">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4526,11 +4859,11 @@
       <c r="C81" t="s">
         <v>641</v>
       </c>
-      <c r="D81" t="n">
-        <v>14182.0</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="D81">
+        <v>14182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -4540,11 +4873,11 @@
       <c r="C82" t="s">
         <v>642</v>
       </c>
-      <c r="D82" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="D82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -4554,11 +4887,11 @@
       <c r="C83" t="s">
         <v>643</v>
       </c>
-      <c r="D83" t="n">
-        <v>9849.0</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="D83">
+        <v>9849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -4568,11 +4901,11 @@
       <c r="C84" t="s">
         <v>644</v>
       </c>
-      <c r="D84" t="n">
-        <v>267.0</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -4582,11 +4915,11 @@
       <c r="C85" t="s">
         <v>645</v>
       </c>
-      <c r="D85" t="n">
-        <v>2576.0</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="D85">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -4596,11 +4929,11 @@
       <c r="C86" t="s">
         <v>646</v>
       </c>
-      <c r="D86" t="n">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="D86">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -4610,11 +4943,11 @@
       <c r="C87" t="s">
         <v>647</v>
       </c>
-      <c r="D87" t="n">
-        <v>786.0</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="D87">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -4624,11 +4957,11 @@
       <c r="C88" t="s">
         <v>648</v>
       </c>
-      <c r="D88" t="n">
-        <v>1260.0</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="D88">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -4638,11 +4971,11 @@
       <c r="C89" t="s">
         <v>649</v>
       </c>
-      <c r="D89" t="n">
-        <v>1337.0</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="D89">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -4652,11 +4985,11 @@
       <c r="C90" t="s">
         <v>650</v>
       </c>
-      <c r="D90" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="D90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -4666,11 +4999,11 @@
       <c r="C91" t="s">
         <v>651</v>
       </c>
-      <c r="D91" t="n">
-        <v>1048.0</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="D91">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -4680,11 +5013,11 @@
       <c r="C92" t="s">
         <v>652</v>
       </c>
-      <c r="D92" t="n">
-        <v>1899.0</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="D92">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -4694,11 +5027,11 @@
       <c r="C93" t="s">
         <v>653</v>
       </c>
-      <c r="D93" t="n">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="D93">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -4708,11 +5041,11 @@
       <c r="C94" t="s">
         <v>654</v>
       </c>
-      <c r="D94" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="D94">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -4722,11 +5055,11 @@
       <c r="C95" t="s">
         <v>655</v>
       </c>
-      <c r="D95" t="n">
-        <v>306.0</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="D95">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -4736,11 +5069,11 @@
       <c r="C96" t="s">
         <v>656</v>
       </c>
-      <c r="D96" t="n">
-        <v>8340.0</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="D96">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -4750,11 +5083,11 @@
       <c r="C97" t="s">
         <v>657</v>
       </c>
-      <c r="D97" t="n">
-        <v>3087.0</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="D97">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -4764,11 +5097,11 @@
       <c r="C98" t="s">
         <v>658</v>
       </c>
-      <c r="D98" t="n">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="D98">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -4778,11 +5111,11 @@
       <c r="C99" t="s">
         <v>659</v>
       </c>
-      <c r="D99" t="n">
-        <v>17820.0</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="D99">
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -4792,11 +5125,11 @@
       <c r="C100" t="s">
         <v>660</v>
       </c>
-      <c r="D100" t="n">
-        <v>225.0</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="D100">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -4806,11 +5139,11 @@
       <c r="C101" t="s">
         <v>661</v>
       </c>
-      <c r="D101" t="n">
-        <v>387.0</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="D101">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -4820,11 +5153,11 @@
       <c r="C102" t="s">
         <v>662</v>
       </c>
-      <c r="D102" t="n">
-        <v>1849.0</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="D102">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -4834,11 +5167,11 @@
       <c r="C103" t="s">
         <v>663</v>
       </c>
-      <c r="D103" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="D103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -4848,11 +5181,11 @@
       <c r="C104" t="s">
         <v>664</v>
       </c>
-      <c r="D104" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="D104">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -4862,11 +5195,11 @@
       <c r="C105" t="s">
         <v>665</v>
       </c>
-      <c r="D105" t="n">
-        <v>154.0</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="D105">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -4876,11 +5209,11 @@
       <c r="C106" t="s">
         <v>666</v>
       </c>
-      <c r="D106" t="n">
-        <v>2306.0</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="D106">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -4890,11 +5223,11 @@
       <c r="C107" t="s">
         <v>667</v>
       </c>
-      <c r="D107" t="n">
-        <v>864.0</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="D107">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -4904,11 +5237,11 @@
       <c r="C108" t="s">
         <v>668</v>
       </c>
-      <c r="D108" t="n">
-        <v>1477.0</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="D108">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -4918,11 +5251,11 @@
       <c r="C109" t="s">
         <v>669</v>
       </c>
-      <c r="D109" t="n">
-        <v>2049.0</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="D109">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -4932,11 +5265,11 @@
       <c r="C110" t="s">
         <v>670</v>
       </c>
-      <c r="D110" t="n">
-        <v>8076.0</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="D110">
+        <v>8076</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -4946,11 +5279,11 @@
       <c r="C111" t="s">
         <v>671</v>
       </c>
-      <c r="D111" t="n">
-        <v>324.0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="D111">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -4960,11 +5293,11 @@
       <c r="C112" t="s">
         <v>672</v>
       </c>
-      <c r="D112" t="n">
-        <v>153.0</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="D112">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -4974,11 +5307,11 @@
       <c r="C113" t="s">
         <v>673</v>
       </c>
-      <c r="D113" t="n">
-        <v>242.0</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="D113">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -4988,11 +5321,11 @@
       <c r="C114" t="s">
         <v>674</v>
       </c>
-      <c r="D114" t="n">
-        <v>1179.0</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="D114">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -5002,11 +5335,11 @@
       <c r="C115" t="s">
         <v>675</v>
       </c>
-      <c r="D115" t="n">
-        <v>242.0</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="D115">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -5016,11 +5349,11 @@
       <c r="C116" t="s">
         <v>676</v>
       </c>
-      <c r="D116" t="n">
-        <v>298.0</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="D116">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -5030,11 +5363,11 @@
       <c r="C117" t="s">
         <v>677</v>
       </c>
-      <c r="D117" t="n">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="D117">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -5044,11 +5377,11 @@
       <c r="C118" t="s">
         <v>678</v>
       </c>
-      <c r="D118" t="n">
-        <v>358.0</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="D118">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -5058,11 +5391,11 @@
       <c r="C119" t="s">
         <v>679</v>
       </c>
-      <c r="D119" t="n">
-        <v>258.0</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="D119">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -5072,11 +5405,11 @@
       <c r="C120" t="s">
         <v>680</v>
       </c>
-      <c r="D120" t="n">
-        <v>268.0</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="D120">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -5086,11 +5419,11 @@
       <c r="C121" t="s">
         <v>681</v>
       </c>
-      <c r="D121" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="D121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -5100,11 +5433,11 @@
       <c r="C122" t="s">
         <v>682</v>
       </c>
-      <c r="D122" t="n">
-        <v>1340.0</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="D122">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -5114,11 +5447,11 @@
       <c r="C123" t="s">
         <v>683</v>
       </c>
-      <c r="D123" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -5128,11 +5461,11 @@
       <c r="C124" t="s">
         <v>684</v>
       </c>
-      <c r="D124" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="D124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -5142,11 +5475,11 @@
       <c r="C125" t="s">
         <v>685</v>
       </c>
-      <c r="D125" t="n">
-        <v>1380.0</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="D125">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -5156,11 +5489,11 @@
       <c r="C126" t="s">
         <v>686</v>
       </c>
-      <c r="D126" t="n">
-        <v>309.0</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="D126">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -5170,11 +5503,11 @@
       <c r="C127" t="s">
         <v>687</v>
       </c>
-      <c r="D127" t="n">
-        <v>3010.0</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="D127">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -5184,11 +5517,11 @@
       <c r="C128" t="s">
         <v>688</v>
       </c>
-      <c r="D128" t="n">
-        <v>411.0</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="D128">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -5198,11 +5531,11 @@
       <c r="C129" t="s">
         <v>689</v>
       </c>
-      <c r="D129" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="D129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -5212,11 +5545,11 @@
       <c r="C130" t="s">
         <v>690</v>
       </c>
-      <c r="D130" t="n">
-        <v>466.0</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="D130">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -5226,11 +5559,11 @@
       <c r="C131" t="s">
         <v>691</v>
       </c>
-      <c r="D131" t="n">
-        <v>148.0</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="D131">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -5240,11 +5573,11 @@
       <c r="C132" t="s">
         <v>692</v>
       </c>
-      <c r="D132" t="n">
-        <v>410.0</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="D132">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -5254,11 +5587,11 @@
       <c r="C133" t="s">
         <v>693</v>
       </c>
-      <c r="D133" t="n">
-        <v>498.0</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="D133">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -5268,11 +5601,11 @@
       <c r="C134" t="s">
         <v>694</v>
       </c>
-      <c r="D134" t="n">
-        <v>5695.0</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="D134">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -5282,11 +5615,11 @@
       <c r="C135" t="s">
         <v>695</v>
       </c>
-      <c r="D135" t="n">
-        <v>1402.0</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="D135">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -5296,11 +5629,11 @@
       <c r="C136" t="s">
         <v>696</v>
       </c>
-      <c r="D136" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="D136">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -5310,11 +5643,11 @@
       <c r="C137" t="s">
         <v>697</v>
       </c>
-      <c r="D137" t="n">
-        <v>211.0</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="D137">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -5324,11 +5657,11 @@
       <c r="C138" t="s">
         <v>698</v>
       </c>
-      <c r="D138" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="D138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -5338,11 +5671,11 @@
       <c r="C139" t="s">
         <v>699</v>
       </c>
-      <c r="D139" t="n">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="D139">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -5352,11 +5685,11 @@
       <c r="C140" t="s">
         <v>700</v>
       </c>
-      <c r="D140" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="D140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -5366,11 +5699,11 @@
       <c r="C141" t="s">
         <v>701</v>
       </c>
-      <c r="D141" t="n">
-        <v>4079.0</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="D141">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -5380,11 +5713,11 @@
       <c r="C142" t="s">
         <v>702</v>
       </c>
-      <c r="D142" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="D142">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -5394,11 +5727,11 @@
       <c r="C143" t="s">
         <v>703</v>
       </c>
-      <c r="D143" t="n">
-        <v>615.0</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="D143">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -5408,11 +5741,11 @@
       <c r="C144" t="s">
         <v>704</v>
       </c>
-      <c r="D144" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="D144">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -5422,11 +5755,11 @@
       <c r="C145" t="s">
         <v>705</v>
       </c>
-      <c r="D145" t="n">
-        <v>1056.0</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="D145">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -5436,11 +5769,11 @@
       <c r="C146" t="s">
         <v>706</v>
       </c>
-      <c r="D146" t="n">
-        <v>179.0</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="D146">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -5450,11 +5783,11 @@
       <c r="C147" t="s">
         <v>707</v>
       </c>
-      <c r="D147" t="n">
-        <v>236.0</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="D147">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -5464,11 +5797,11 @@
       <c r="C148" t="s">
         <v>708</v>
       </c>
-      <c r="D148" t="n">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="D148">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -5478,11 +5811,11 @@
       <c r="C149" t="s">
         <v>709</v>
       </c>
-      <c r="D149" t="n">
-        <v>765.0</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="D149">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -5492,11 +5825,11 @@
       <c r="C150" t="s">
         <v>710</v>
       </c>
-      <c r="D150" t="n">
-        <v>1340.0</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="D150">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -5506,11 +5839,11 @@
       <c r="C151" t="s">
         <v>711</v>
       </c>
-      <c r="D151" t="n">
-        <v>242.0</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="D151">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -5520,11 +5853,11 @@
       <c r="C152" t="s">
         <v>712</v>
       </c>
-      <c r="D152" t="n">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="D152">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -5534,11 +5867,11 @@
       <c r="C153" t="s">
         <v>713</v>
       </c>
-      <c r="D153" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="D153">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -5548,11 +5881,11 @@
       <c r="C154" t="s">
         <v>714</v>
       </c>
-      <c r="D154" t="n">
-        <v>448.0</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="D154">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -5562,11 +5895,11 @@
       <c r="C155" t="s">
         <v>715</v>
       </c>
-      <c r="D155" t="n">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="D155">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -5576,11 +5909,11 @@
       <c r="C156" t="s">
         <v>716</v>
       </c>
-      <c r="D156" t="n">
-        <v>6804.0</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="D156">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -5590,11 +5923,11 @@
       <c r="C157" t="s">
         <v>717</v>
       </c>
-      <c r="D157" t="n">
-        <v>595.0</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="D157">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -5604,11 +5937,11 @@
       <c r="C158" t="s">
         <v>718</v>
       </c>
-      <c r="D158" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="D158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -5618,11 +5951,11 @@
       <c r="C159" t="s">
         <v>719</v>
       </c>
-      <c r="D159" t="n">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="D159">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -5632,11 +5965,11 @@
       <c r="C160" t="s">
         <v>720</v>
       </c>
-      <c r="D160" t="n">
-        <v>2636.0</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="D160">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -5646,11 +5979,11 @@
       <c r="C161" t="s">
         <v>721</v>
       </c>
-      <c r="D161" t="n">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="D161">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -5660,11 +5993,11 @@
       <c r="C162" t="s">
         <v>722</v>
       </c>
-      <c r="D162" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="D162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -5674,11 +6007,11 @@
       <c r="C163" t="s">
         <v>723</v>
       </c>
-      <c r="D163" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="D163">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -5688,11 +6021,11 @@
       <c r="C164" t="s">
         <v>724</v>
       </c>
-      <c r="D164" t="n">
-        <v>4163.0</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="D164">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -5702,11 +6035,11 @@
       <c r="C165" t="s">
         <v>725</v>
       </c>
-      <c r="D165" t="n">
-        <v>606.0</v>
-      </c>
-    </row>
-    <row r="166">
+      <c r="D165">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -5716,11 +6049,11 @@
       <c r="C166" t="s">
         <v>726</v>
       </c>
-      <c r="D166" t="n">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="167">
+      <c r="D166">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -5730,11 +6063,11 @@
       <c r="C167" t="s">
         <v>727</v>
       </c>
-      <c r="D167" t="n">
-        <v>1252.0</v>
-      </c>
-    </row>
-    <row r="168">
+      <c r="D167">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -5744,11 +6077,11 @@
       <c r="C168" t="s">
         <v>728</v>
       </c>
-      <c r="D168" t="n">
-        <v>1401.0</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="D168">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -5758,11 +6091,11 @@
       <c r="C169" t="s">
         <v>729</v>
       </c>
-      <c r="D169" t="n">
-        <v>10908.0</v>
-      </c>
-    </row>
-    <row r="170">
+      <c r="D169">
+        <v>10908</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -5772,11 +6105,11 @@
       <c r="C170" t="s">
         <v>730</v>
       </c>
-      <c r="D170" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="D170">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -5786,11 +6119,11 @@
       <c r="C171" t="s">
         <v>731</v>
       </c>
-      <c r="D171" t="n">
-        <v>451.0</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="D171">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -5800,11 +6133,11 @@
       <c r="C172" t="s">
         <v>732</v>
       </c>
-      <c r="D172" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -5814,11 +6147,11 @@
       <c r="C173" t="s">
         <v>733</v>
       </c>
-      <c r="D173" t="n">
-        <v>4216.0</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="D173">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -5828,11 +6161,11 @@
       <c r="C174" t="s">
         <v>734</v>
       </c>
-      <c r="D174" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="175">
+      <c r="D174">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -5842,11 +6175,11 @@
       <c r="C175" t="s">
         <v>735</v>
       </c>
-      <c r="D175" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="D175">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -5856,11 +6189,11 @@
       <c r="C176" t="s">
         <v>736</v>
       </c>
-      <c r="D176" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="177">
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -5870,11 +6203,11 @@
       <c r="C177" t="s">
         <v>737</v>
       </c>
-      <c r="D177" t="n">
-        <v>547.0</v>
-      </c>
-    </row>
-    <row r="178">
+      <c r="D177">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -5884,11 +6217,11 @@
       <c r="C178" t="s">
         <v>738</v>
       </c>
-      <c r="D178" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="179">
+      <c r="D178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -5898,11 +6231,11 @@
       <c r="C179" t="s">
         <v>739</v>
       </c>
-      <c r="D179" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="180">
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -5912,11 +6245,11 @@
       <c r="C180" t="s">
         <v>740</v>
       </c>
-      <c r="D180" t="n">
-        <v>736.0</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="D180">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -5926,11 +6259,11 @@
       <c r="C181" t="s">
         <v>741</v>
       </c>
-      <c r="D181" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="D181">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -5940,11 +6273,11 @@
       <c r="C182" t="s">
         <v>742</v>
       </c>
-      <c r="D182" t="n">
-        <v>2328.0</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="D182">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -5954,11 +6287,11 @@
       <c r="C183" t="s">
         <v>743</v>
       </c>
-      <c r="D183" t="n">
-        <v>8291.0</v>
-      </c>
-    </row>
-    <row r="184">
+      <c r="D183">
+        <v>8291</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -5968,11 +6301,11 @@
       <c r="C184" t="s">
         <v>744</v>
       </c>
-      <c r="D184" t="n">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="D184">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -5982,11 +6315,11 @@
       <c r="C185" t="s">
         <v>745</v>
       </c>
-      <c r="D185" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="D185">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -5996,11 +6329,11 @@
       <c r="C186" t="s">
         <v>746</v>
       </c>
-      <c r="D186" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="187">
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -6010,11 +6343,11 @@
       <c r="C187" t="s">
         <v>747</v>
       </c>
-      <c r="D187" t="n">
-        <v>3242.0</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="D187">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -6024,11 +6357,11 @@
       <c r="C188" t="s">
         <v>748</v>
       </c>
-      <c r="D188" t="n">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="189">
+      <c r="D188">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -6038,11 +6371,11 @@
       <c r="C189" t="s">
         <v>749</v>
       </c>
-      <c r="D189" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="D189">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -6052,11 +6385,11 @@
       <c r="C190" t="s">
         <v>750</v>
       </c>
-      <c r="D190" t="n">
-        <v>4315.0</v>
-      </c>
-    </row>
-    <row r="191">
+      <c r="D190">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -6066,11 +6399,11 @@
       <c r="C191" t="s">
         <v>751</v>
       </c>
-      <c r="D191" t="n">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="192">
+      <c r="D191">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -6080,11 +6413,11 @@
       <c r="C192" t="s">
         <v>752</v>
       </c>
-      <c r="D192" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="193">
+      <c r="D192">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -6094,11 +6427,11 @@
       <c r="C193" t="s">
         <v>753</v>
       </c>
-      <c r="D193" t="n">
-        <v>19086.0</v>
-      </c>
-    </row>
-    <row r="194">
+      <c r="D193">
+        <v>19086</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -6108,11 +6441,11 @@
       <c r="C194" t="s">
         <v>754</v>
       </c>
-      <c r="D194" t="n">
-        <v>6899.0</v>
-      </c>
-    </row>
-    <row r="195">
+      <c r="D194">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -6122,11 +6455,11 @@
       <c r="C195" t="s">
         <v>755</v>
       </c>
-      <c r="D195" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="196">
+      <c r="D195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -6136,11 +6469,11 @@
       <c r="C196" t="s">
         <v>756</v>
       </c>
-      <c r="D196" t="n">
-        <v>359.0</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="D196">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -6150,11 +6483,11 @@
       <c r="C197" t="s">
         <v>757</v>
       </c>
-      <c r="D197" t="n">
-        <v>693.0</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="D197">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -6164,11 +6497,11 @@
       <c r="C198" t="s">
         <v>758</v>
       </c>
-      <c r="D198" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="199">
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -6178,11 +6511,11 @@
       <c r="C199" t="s">
         <v>759</v>
       </c>
-      <c r="D199" t="n">
-        <v>278.0</v>
-      </c>
-    </row>
-    <row r="200">
+      <c r="D199">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -6192,11 +6525,11 @@
       <c r="C200" t="s">
         <v>760</v>
       </c>
-      <c r="D200" t="n">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="201">
+      <c r="D200">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -6206,11 +6539,11 @@
       <c r="C201" t="s">
         <v>761</v>
       </c>
-      <c r="D201" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="202">
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -6220,11 +6553,11 @@
       <c r="C202" t="s">
         <v>762</v>
       </c>
-      <c r="D202" t="n">
-        <v>25636.0</v>
-      </c>
-    </row>
-    <row r="203">
+      <c r="D202">
+        <v>25636</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -6234,11 +6567,11 @@
       <c r="C203" t="s">
         <v>763</v>
       </c>
-      <c r="D203" t="n">
-        <v>1340.0</v>
-      </c>
-    </row>
-    <row r="204">
+      <c r="D203">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -6248,11 +6581,11 @@
       <c r="C204" t="s">
         <v>764</v>
       </c>
-      <c r="D204" t="n">
-        <v>401.0</v>
-      </c>
-    </row>
-    <row r="205">
+      <c r="D204">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -6262,11 +6595,11 @@
       <c r="C205" t="s">
         <v>765</v>
       </c>
-      <c r="D205" t="n">
-        <v>2224.0</v>
-      </c>
-    </row>
-    <row r="206">
+      <c r="D205">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -6276,11 +6609,11 @@
       <c r="C206" t="s">
         <v>766</v>
       </c>
-      <c r="D206" t="n">
-        <v>4721.0</v>
-      </c>
-    </row>
-    <row r="207">
+      <c r="D206">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -6290,11 +6623,11 @@
       <c r="C207" t="s">
         <v>767</v>
       </c>
-      <c r="D207" t="n">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="208">
+      <c r="D207">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -6304,11 +6637,11 @@
       <c r="C208" t="s">
         <v>768</v>
       </c>
-      <c r="D208" t="n">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="209">
+      <c r="D208">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -6318,11 +6651,11 @@
       <c r="C209" t="s">
         <v>769</v>
       </c>
-      <c r="D209" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="210">
+      <c r="D209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -6332,11 +6665,11 @@
       <c r="C210" t="s">
         <v>770</v>
       </c>
-      <c r="D210" t="n">
-        <v>262.0</v>
-      </c>
-    </row>
-    <row r="211">
+      <c r="D210">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -6346,11 +6679,11 @@
       <c r="C211" t="s">
         <v>771</v>
       </c>
-      <c r="D211" t="n">
-        <v>1389.0</v>
-      </c>
-    </row>
-    <row r="212">
+      <c r="D211">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -6360,11 +6693,11 @@
       <c r="C212" t="s">
         <v>772</v>
       </c>
-      <c r="D212" t="n">
-        <v>107969.0</v>
-      </c>
-    </row>
-    <row r="213">
+      <c r="D212">
+        <v>107969</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -6374,11 +6707,11 @@
       <c r="C213" t="s">
         <v>773</v>
       </c>
-      <c r="D213" t="n">
-        <v>17129.0</v>
-      </c>
-    </row>
-    <row r="214">
+      <c r="D213">
+        <v>17129</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -6388,11 +6721,11 @@
       <c r="C214" t="s">
         <v>774</v>
       </c>
-      <c r="D214" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="215">
+      <c r="D214">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -6402,11 +6735,11 @@
       <c r="C215" t="s">
         <v>775</v>
       </c>
-      <c r="D215" t="n">
-        <v>4146.0</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="D215">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -6416,11 +6749,11 @@
       <c r="C216" t="s">
         <v>776</v>
       </c>
-      <c r="D216" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="217">
+      <c r="D216">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -6430,11 +6763,11 @@
       <c r="C217" t="s">
         <v>777</v>
       </c>
-      <c r="D217" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="218">
+      <c r="D217">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -6444,11 +6777,11 @@
       <c r="C218" t="s">
         <v>778</v>
       </c>
-      <c r="D218" t="n">
-        <v>871.0</v>
-      </c>
-    </row>
-    <row r="219">
+      <c r="D218">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -6458,11 +6791,11 @@
       <c r="C219" t="s">
         <v>779</v>
       </c>
-      <c r="D219" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="220">
+      <c r="D219">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -6472,11 +6805,11 @@
       <c r="C220" t="s">
         <v>780</v>
       </c>
-      <c r="D220" t="n">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="221">
+      <c r="D220">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -6486,11 +6819,11 @@
       <c r="C221" t="s">
         <v>781</v>
       </c>
-      <c r="D221" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="222">
+      <c r="D221">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -6500,11 +6833,11 @@
       <c r="C222" t="s">
         <v>782</v>
       </c>
-      <c r="D222" t="n">
-        <v>509.0</v>
-      </c>
-    </row>
-    <row r="223">
+      <c r="D222">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -6514,11 +6847,11 @@
       <c r="C223" t="s">
         <v>783</v>
       </c>
-      <c r="D223" t="n">
-        <v>1768.0</v>
-      </c>
-    </row>
-    <row r="224">
+      <c r="D223">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -6528,11 +6861,11 @@
       <c r="C224" t="s">
         <v>784</v>
       </c>
-      <c r="D224" t="n">
-        <v>7680.0</v>
-      </c>
-    </row>
-    <row r="225">
+      <c r="D224">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -6542,11 +6875,11 @@
       <c r="C225" t="s">
         <v>785</v>
       </c>
-      <c r="D225" t="n">
-        <v>6233.0</v>
-      </c>
-    </row>
-    <row r="226">
+      <c r="D225">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -6556,11 +6889,11 @@
       <c r="C226" t="s">
         <v>786</v>
       </c>
-      <c r="D226" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="227">
+      <c r="D226">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -6570,11 +6903,11 @@
       <c r="C227" t="s">
         <v>787</v>
       </c>
-      <c r="D227" t="n">
-        <v>3012.0</v>
-      </c>
-    </row>
-    <row r="228">
+      <c r="D227">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -6584,11 +6917,11 @@
       <c r="C228" t="s">
         <v>788</v>
       </c>
-      <c r="D228" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="229">
+      <c r="D228">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -6598,11 +6931,11 @@
       <c r="C229" t="s">
         <v>789</v>
       </c>
-      <c r="D229" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="230">
+      <c r="D229">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -6612,11 +6945,11 @@
       <c r="C230" t="s">
         <v>790</v>
       </c>
-      <c r="D230" t="n">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="231">
+      <c r="D230">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -6626,11 +6959,11 @@
       <c r="C231" t="s">
         <v>791</v>
       </c>
-      <c r="D231" t="n">
-        <v>393.0</v>
-      </c>
-    </row>
-    <row r="232">
+      <c r="D231">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -6640,11 +6973,11 @@
       <c r="C232" t="s">
         <v>792</v>
       </c>
-      <c r="D232" t="n">
-        <v>505.0</v>
-      </c>
-    </row>
-    <row r="233">
+      <c r="D232">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -6654,11 +6987,11 @@
       <c r="C233" t="s">
         <v>793</v>
       </c>
-      <c r="D233" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="234">
+      <c r="D233">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -6668,11 +7001,11 @@
       <c r="C234" t="s">
         <v>794</v>
       </c>
-      <c r="D234" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="235">
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -6682,11 +7015,11 @@
       <c r="C235" t="s">
         <v>795</v>
       </c>
-      <c r="D235" t="n">
-        <v>669.0</v>
-      </c>
-    </row>
-    <row r="236">
+      <c r="D235">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -6696,11 +7029,11 @@
       <c r="C236" t="s">
         <v>796</v>
       </c>
-      <c r="D236" t="n">
-        <v>3730.0</v>
-      </c>
-    </row>
-    <row r="237">
+      <c r="D236">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -6710,11 +7043,11 @@
       <c r="C237" t="s">
         <v>797</v>
       </c>
-      <c r="D237" t="n">
-        <v>14317.0</v>
-      </c>
-    </row>
-    <row r="238">
+      <c r="D237">
+        <v>14317</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -6724,11 +7057,11 @@
       <c r="C238" t="s">
         <v>798</v>
       </c>
-      <c r="D238" t="n">
-        <v>481.0</v>
-      </c>
-    </row>
-    <row r="239">
+      <c r="D238">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -6738,11 +7071,11 @@
       <c r="C239" t="s">
         <v>799</v>
       </c>
-      <c r="D239" t="n">
-        <v>505.0</v>
-      </c>
-    </row>
-    <row r="240">
+      <c r="D239">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -6752,11 +7085,11 @@
       <c r="C240" t="s">
         <v>800</v>
       </c>
-      <c r="D240" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="241">
+      <c r="D240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -6766,11 +7099,11 @@
       <c r="C241" t="s">
         <v>801</v>
       </c>
-      <c r="D241" t="n">
-        <v>1912.0</v>
-      </c>
-    </row>
-    <row r="242">
+      <c r="D241">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -6780,11 +7113,11 @@
       <c r="C242" t="s">
         <v>802</v>
       </c>
-      <c r="D242" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="243">
+      <c r="D242">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -6794,11 +7127,11 @@
       <c r="C243" t="s">
         <v>803</v>
       </c>
-      <c r="D243" t="n">
-        <v>1578.0</v>
-      </c>
-    </row>
-    <row r="244">
+      <c r="D243">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -6808,11 +7141,11 @@
       <c r="C244" t="s">
         <v>804</v>
       </c>
-      <c r="D244" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="245">
+      <c r="D244">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -6822,11 +7155,11 @@
       <c r="C245" t="s">
         <v>805</v>
       </c>
-      <c r="D245" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="246">
+      <c r="D245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -6836,11 +7169,11 @@
       <c r="C246" t="s">
         <v>806</v>
       </c>
-      <c r="D246" t="n">
-        <v>9251.0</v>
-      </c>
-    </row>
-    <row r="247">
+      <c r="D246">
+        <v>9251</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -6850,11 +7183,11 @@
       <c r="C247" t="s">
         <v>807</v>
       </c>
-      <c r="D247" t="n">
-        <v>5282.0</v>
-      </c>
-    </row>
-    <row r="248">
+      <c r="D247">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -6864,11 +7197,11 @@
       <c r="C248" t="s">
         <v>808</v>
       </c>
-      <c r="D248" t="n">
-        <v>25947.0</v>
-      </c>
-    </row>
-    <row r="249">
+      <c r="D248">
+        <v>25947</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -6878,11 +7211,11 @@
       <c r="C249" t="s">
         <v>809</v>
       </c>
-      <c r="D249" t="n">
-        <v>2361.0</v>
-      </c>
-    </row>
-    <row r="250">
+      <c r="D249">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -6892,11 +7225,11 @@
       <c r="C250" t="s">
         <v>810</v>
       </c>
-      <c r="D250" t="n">
-        <v>2935.0</v>
-      </c>
-    </row>
-    <row r="251">
+      <c r="D250">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -6906,11 +7239,11 @@
       <c r="C251" t="s">
         <v>811</v>
       </c>
-      <c r="D251" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="252">
+      <c r="D251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -6920,11 +7253,11 @@
       <c r="C252" t="s">
         <v>812</v>
       </c>
-      <c r="D252" t="n">
-        <v>12381.0</v>
-      </c>
-    </row>
-    <row r="253">
+      <c r="D252">
+        <v>12381</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -6934,11 +7267,11 @@
       <c r="C253" t="s">
         <v>813</v>
       </c>
-      <c r="D253" t="n">
-        <v>5188.0</v>
-      </c>
-    </row>
-    <row r="254">
+      <c r="D253">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -6948,11 +7281,11 @@
       <c r="C254" t="s">
         <v>814</v>
       </c>
-      <c r="D254" t="n">
-        <v>21821.0</v>
-      </c>
-    </row>
-    <row r="255">
+      <c r="D254">
+        <v>21821</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -6962,11 +7295,11 @@
       <c r="C255" t="s">
         <v>815</v>
       </c>
-      <c r="D255" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="256">
+      <c r="D255">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -6976,11 +7309,11 @@
       <c r="C256" t="s">
         <v>816</v>
       </c>
-      <c r="D256" t="n">
-        <v>2084.0</v>
-      </c>
-    </row>
-    <row r="257">
+      <c r="D256">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -6990,11 +7323,11 @@
       <c r="C257" t="s">
         <v>817</v>
       </c>
-      <c r="D257" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="258">
+      <c r="D257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -7004,11 +7337,11 @@
       <c r="C258" t="s">
         <v>818</v>
       </c>
-      <c r="D258" t="n">
-        <v>6169.0</v>
-      </c>
-    </row>
-    <row r="259">
+      <c r="D258">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -7018,11 +7351,11 @@
       <c r="C259" t="s">
         <v>819</v>
       </c>
-      <c r="D259" t="n">
-        <v>1409.0</v>
-      </c>
-    </row>
-    <row r="260">
+      <c r="D259">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -7032,11 +7365,11 @@
       <c r="C260" t="s">
         <v>820</v>
       </c>
-      <c r="D260" t="n">
-        <v>811.0</v>
-      </c>
-    </row>
-    <row r="261">
+      <c r="D260">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -7046,11 +7379,11 @@
       <c r="C261" t="s">
         <v>821</v>
       </c>
-      <c r="D261" t="n">
-        <v>171.0</v>
-      </c>
-    </row>
-    <row r="262">
+      <c r="D261">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -7060,11 +7393,11 @@
       <c r="C262" t="s">
         <v>822</v>
       </c>
-      <c r="D262" t="n">
-        <v>724.0</v>
-      </c>
-    </row>
-    <row r="263">
+      <c r="D262">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -7074,11 +7407,11 @@
       <c r="C263" t="s">
         <v>823</v>
       </c>
-      <c r="D263" t="n">
-        <v>642.0</v>
-      </c>
-    </row>
-    <row r="264">
+      <c r="D263">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -7088,11 +7421,11 @@
       <c r="C264" t="s">
         <v>824</v>
       </c>
-      <c r="D264" t="n">
-        <v>830.0</v>
-      </c>
-    </row>
-    <row r="265">
+      <c r="D264">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -7102,11 +7435,11 @@
       <c r="C265" t="s">
         <v>825</v>
       </c>
-      <c r="D265" t="n">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="266">
+      <c r="D265">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -7116,11 +7449,11 @@
       <c r="C266" t="s">
         <v>826</v>
       </c>
-      <c r="D266" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="267">
+      <c r="D266">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -7130,11 +7463,11 @@
       <c r="C267" t="s">
         <v>827</v>
       </c>
-      <c r="D267" t="n">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="268">
+      <c r="D267">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -7144,11 +7477,11 @@
       <c r="C268" t="s">
         <v>828</v>
       </c>
-      <c r="D268" t="n">
-        <v>32237.0</v>
-      </c>
-    </row>
-    <row r="269">
+      <c r="D268">
+        <v>32237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -7158,11 +7491,11 @@
       <c r="C269" t="s">
         <v>829</v>
       </c>
-      <c r="D269" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="270">
+      <c r="D269">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -7172,11 +7505,11 @@
       <c r="C270" t="s">
         <v>830</v>
       </c>
-      <c r="D270" t="n">
-        <v>694.0</v>
-      </c>
-    </row>
-    <row r="271">
+      <c r="D270">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -7186,11 +7519,11 @@
       <c r="C271" t="s">
         <v>831</v>
       </c>
-      <c r="D271" t="n">
-        <v>3041.0</v>
-      </c>
-    </row>
-    <row r="272">
+      <c r="D271">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -7200,11 +7533,11 @@
       <c r="C272" t="s">
         <v>832</v>
       </c>
-      <c r="D272" t="n">
-        <v>206.0</v>
-      </c>
-    </row>
-    <row r="273">
+      <c r="D272">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -7214,11 +7547,11 @@
       <c r="C273" t="s">
         <v>833</v>
       </c>
-      <c r="D273" t="n">
-        <v>399.0</v>
-      </c>
-    </row>
-    <row r="274">
+      <c r="D273">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -7228,11 +7561,11 @@
       <c r="C274" t="s">
         <v>834</v>
       </c>
-      <c r="D274" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="275">
+      <c r="D274">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -7242,11 +7575,11 @@
       <c r="C275" t="s">
         <v>835</v>
       </c>
-      <c r="D275" t="n">
-        <v>262.0</v>
-      </c>
-    </row>
-    <row r="276">
+      <c r="D275">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -7256,11 +7589,11 @@
       <c r="C276" t="s">
         <v>836</v>
       </c>
-      <c r="D276" t="n">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="277">
+      <c r="D276">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -7270,11 +7603,11 @@
       <c r="C277" t="s">
         <v>837</v>
       </c>
-      <c r="D277" t="n">
-        <v>241.0</v>
-      </c>
-    </row>
-    <row r="278">
+      <c r="D277">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -7284,11 +7617,11 @@
       <c r="C278" t="s">
         <v>838</v>
       </c>
-      <c r="D278" t="n">
-        <v>6706.0</v>
-      </c>
-    </row>
-    <row r="279">
+      <c r="D278">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -7298,11 +7631,11 @@
       <c r="C279" t="s">
         <v>839</v>
       </c>
-      <c r="D279" t="n">
-        <v>1181.0</v>
-      </c>
-    </row>
-    <row r="280">
+      <c r="D279">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -7312,11 +7645,11 @@
       <c r="C280" t="s">
         <v>840</v>
       </c>
-      <c r="D280" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="281">
+      <c r="D280">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -7326,11 +7659,11 @@
       <c r="C281" t="s">
         <v>841</v>
       </c>
-      <c r="D281" t="n">
-        <v>2077.0</v>
-      </c>
-    </row>
-    <row r="282">
+      <c r="D281">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -7340,11 +7673,11 @@
       <c r="C282" t="s">
         <v>842</v>
       </c>
-      <c r="D282" t="n">
-        <v>204.0</v>
-      </c>
-    </row>
-    <row r="283">
+      <c r="D282">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -7354,11 +7687,11 @@
       <c r="C283" t="s">
         <v>843</v>
       </c>
-      <c r="D283" t="n">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="284">
+      <c r="D283">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -7368,11 +7701,11 @@
       <c r="C284" t="s">
         <v>844</v>
       </c>
-      <c r="D284" t="n">
-        <v>403.0</v>
-      </c>
-    </row>
-    <row r="285">
+      <c r="D284">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -7382,11 +7715,11 @@
       <c r="C285" t="s">
         <v>845</v>
       </c>
-      <c r="D285" t="n">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="286">
+      <c r="D285">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -7396,11 +7729,11 @@
       <c r="C286" t="s">
         <v>846</v>
       </c>
-      <c r="D286" t="n">
-        <v>1088.0</v>
-      </c>
-    </row>
-    <row r="287">
+      <c r="D286">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -7410,11 +7743,11 @@
       <c r="C287" t="s">
         <v>847</v>
       </c>
-      <c r="D287" t="n">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="288">
+      <c r="D287">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -7424,11 +7757,11 @@
       <c r="C288" t="s">
         <v>848</v>
       </c>
-      <c r="D288" t="n">
-        <v>1731.0</v>
-      </c>
-    </row>
-    <row r="289">
+      <c r="D288">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -7438,11 +7771,11 @@
       <c r="C289" t="s">
         <v>849</v>
       </c>
-      <c r="D289" t="n">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="290">
+      <c r="D289">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -7452,11 +7785,11 @@
       <c r="C290" t="s">
         <v>850</v>
       </c>
-      <c r="D290" t="n">
-        <v>760.0</v>
-      </c>
-    </row>
-    <row r="291">
+      <c r="D290">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -7466,11 +7799,11 @@
       <c r="C291" t="s">
         <v>851</v>
       </c>
-      <c r="D291" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="292">
+      <c r="D291">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -7480,11 +7813,11 @@
       <c r="C292" t="s">
         <v>852</v>
       </c>
-      <c r="D292" t="n">
-        <v>625.0</v>
-      </c>
-    </row>
-    <row r="293">
+      <c r="D292">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -7494,11 +7827,11 @@
       <c r="C293" t="s">
         <v>853</v>
       </c>
-      <c r="D293" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="294">
+      <c r="D293">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -7508,11 +7841,11 @@
       <c r="C294" t="s">
         <v>854</v>
       </c>
-      <c r="D294" t="n">
-        <v>661.0</v>
-      </c>
-    </row>
-    <row r="295">
+      <c r="D294">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -7522,11 +7855,11 @@
       <c r="C295" t="s">
         <v>855</v>
       </c>
-      <c r="D295" t="n">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="296">
+      <c r="D295">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -7536,11 +7869,11 @@
       <c r="C296" t="s">
         <v>856</v>
       </c>
-      <c r="D296" t="n">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="297">
+      <c r="D296">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -7550,11 +7883,11 @@
       <c r="C297" t="s">
         <v>857</v>
       </c>
-      <c r="D297" t="n">
-        <v>884.0</v>
-      </c>
-    </row>
-    <row r="298">
+      <c r="D297">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -7564,11 +7897,11 @@
       <c r="C298" t="s">
         <v>858</v>
       </c>
-      <c r="D298" t="n">
-        <v>2467.0</v>
-      </c>
-    </row>
-    <row r="299">
+      <c r="D298">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -7578,11 +7911,11 @@
       <c r="C299" t="s">
         <v>858</v>
       </c>
-      <c r="D299" t="n">
-        <v>1187.0</v>
-      </c>
-    </row>
-    <row r="300">
+      <c r="D299">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -7592,11 +7925,11 @@
       <c r="C300" t="s">
         <v>859</v>
       </c>
-      <c r="D300" t="n">
-        <v>44627.0</v>
-      </c>
-    </row>
-    <row r="301">
+      <c r="D300">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -7606,11 +7939,11 @@
       <c r="C301" t="s">
         <v>860</v>
       </c>
-      <c r="D301" t="n">
-        <v>646.0</v>
-      </c>
-    </row>
-    <row r="302">
+      <c r="D301">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -7620,11 +7953,11 @@
       <c r="C302" t="s">
         <v>861</v>
       </c>
-      <c r="D302" t="n">
-        <v>366.0</v>
-      </c>
-    </row>
-    <row r="303">
+      <c r="D302">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -7634,11 +7967,11 @@
       <c r="C303" t="s">
         <v>862</v>
       </c>
-      <c r="D303" t="n">
-        <v>401.0</v>
-      </c>
-    </row>
-    <row r="304">
+      <c r="D303">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -7648,11 +7981,11 @@
       <c r="C304" t="s">
         <v>863</v>
       </c>
-      <c r="D304" t="n">
-        <v>1170.0</v>
-      </c>
-    </row>
-    <row r="305">
+      <c r="D304">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -7662,11 +7995,11 @@
       <c r="C305" t="s">
         <v>864</v>
       </c>
-      <c r="D305" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="306">
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -7676,11 +8009,11 @@
       <c r="C306" t="s">
         <v>865</v>
       </c>
-      <c r="D306" t="n">
-        <v>1561.0</v>
-      </c>
-    </row>
-    <row r="307">
+      <c r="D306">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -7690,11 +8023,11 @@
       <c r="C307" t="s">
         <v>866</v>
       </c>
-      <c r="D307" t="n">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="308">
+      <c r="D307">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -7704,11 +8037,11 @@
       <c r="C308" t="s">
         <v>867</v>
       </c>
-      <c r="D308" t="n">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="309">
+      <c r="D308">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -7718,11 +8051,11 @@
       <c r="C309" t="s">
         <v>868</v>
       </c>
-      <c r="D309" t="n">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="310">
+      <c r="D309">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -7732,11 +8065,11 @@
       <c r="C310" t="s">
         <v>869</v>
       </c>
-      <c r="D310" t="n">
-        <v>309.0</v>
-      </c>
-    </row>
-    <row r="311">
+      <c r="D310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -7746,11 +8079,11 @@
       <c r="C311" t="s">
         <v>870</v>
       </c>
-      <c r="D311" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="312">
+      <c r="D311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -7760,11 +8093,11 @@
       <c r="C312" t="s">
         <v>871</v>
       </c>
-      <c r="D312" t="n">
-        <v>910.0</v>
-      </c>
-    </row>
-    <row r="313">
+      <c r="D312">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -7774,11 +8107,11 @@
       <c r="C313" t="s">
         <v>872</v>
       </c>
-      <c r="D313" t="n">
-        <v>2056.0</v>
-      </c>
-    </row>
-    <row r="314">
+      <c r="D313">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -7788,11 +8121,11 @@
       <c r="C314" t="s">
         <v>873</v>
       </c>
-      <c r="D314" t="n">
-        <v>2651.0</v>
-      </c>
-    </row>
-    <row r="315">
+      <c r="D314">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -7802,11 +8135,11 @@
       <c r="C315" t="s">
         <v>874</v>
       </c>
-      <c r="D315" t="n">
-        <v>6308.0</v>
-      </c>
-    </row>
-    <row r="316">
+      <c r="D315">
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -7816,11 +8149,11 @@
       <c r="C316" t="s">
         <v>875</v>
       </c>
-      <c r="D316" t="n">
-        <v>3064.0</v>
-      </c>
-    </row>
-    <row r="317">
+      <c r="D316">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -7830,11 +8163,11 @@
       <c r="C317" t="s">
         <v>876</v>
       </c>
-      <c r="D317" t="n">
-        <v>268.0</v>
-      </c>
-    </row>
-    <row r="318">
+      <c r="D317">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -7844,11 +8177,11 @@
       <c r="C318" t="s">
         <v>877</v>
       </c>
-      <c r="D318" t="n">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="319">
+      <c r="D318">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -7858,11 +8191,11 @@
       <c r="C319" t="s">
         <v>878</v>
       </c>
-      <c r="D319" t="n">
-        <v>9850.0</v>
-      </c>
-    </row>
-    <row r="320">
+      <c r="D319">
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -7872,11 +8205,11 @@
       <c r="C320" t="s">
         <v>879</v>
       </c>
-      <c r="D320" t="n">
-        <v>4010.0</v>
-      </c>
-    </row>
-    <row r="321">
+      <c r="D320">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -7886,11 +8219,11 @@
       <c r="C321" t="s">
         <v>880</v>
       </c>
-      <c r="D321" t="n">
-        <v>9468.0</v>
-      </c>
-    </row>
-    <row r="322">
+      <c r="D321">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -7900,11 +8233,11 @@
       <c r="C322" t="s">
         <v>881</v>
       </c>
-      <c r="D322" t="n">
-        <v>335.0</v>
-      </c>
-    </row>
-    <row r="323">
+      <c r="D322">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -7914,11 +8247,11 @@
       <c r="C323" t="s">
         <v>882</v>
       </c>
-      <c r="D323" t="n">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="324">
+      <c r="D323">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -7928,11 +8261,11 @@
       <c r="C324" t="s">
         <v>883</v>
       </c>
-      <c r="D324" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="325">
+      <c r="D324">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -7942,11 +8275,11 @@
       <c r="C325" t="s">
         <v>884</v>
       </c>
-      <c r="D325" t="n">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="326">
+      <c r="D325">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -7956,11 +8289,11 @@
       <c r="C326" t="s">
         <v>885</v>
       </c>
-      <c r="D326" t="n">
-        <v>387.0</v>
-      </c>
-    </row>
-    <row r="327">
+      <c r="D326">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -7970,11 +8303,11 @@
       <c r="C327" t="s">
         <v>886</v>
       </c>
-      <c r="D327" t="n">
-        <v>9147.0</v>
-      </c>
-    </row>
-    <row r="328">
+      <c r="D327">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -7984,11 +8317,11 @@
       <c r="C328" t="s">
         <v>887</v>
       </c>
-      <c r="D328" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="329">
+      <c r="D328">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -7998,11 +8331,11 @@
       <c r="C329" t="s">
         <v>888</v>
       </c>
-      <c r="D329" t="n">
-        <v>1489.0</v>
-      </c>
-    </row>
-    <row r="330">
+      <c r="D329">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -8012,11 +8345,11 @@
       <c r="C330" t="s">
         <v>889</v>
       </c>
-      <c r="D330" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="331">
+      <c r="D330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -8026,11 +8359,11 @@
       <c r="C331" t="s">
         <v>890</v>
       </c>
-      <c r="D331" t="n">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="332">
+      <c r="D331">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -8040,11 +8373,11 @@
       <c r="C332" t="s">
         <v>891</v>
       </c>
-      <c r="D332" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="333">
+      <c r="D332">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -8054,11 +8387,11 @@
       <c r="C333" t="s">
         <v>892</v>
       </c>
-      <c r="D333" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="334">
+      <c r="D333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -8068,11 +8401,11 @@
       <c r="C334" t="s">
         <v>893</v>
       </c>
-      <c r="D334" t="n">
-        <v>1024.0</v>
-      </c>
-    </row>
-    <row r="335">
+      <c r="D334">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -8082,11 +8415,11 @@
       <c r="C335" t="s">
         <v>894</v>
       </c>
-      <c r="D335" t="n">
-        <v>252.0</v>
-      </c>
-    </row>
-    <row r="336">
+      <c r="D335">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -8096,11 +8429,11 @@
       <c r="C336" t="s">
         <v>895</v>
       </c>
-      <c r="D336" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="337">
+      <c r="D336">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -8110,11 +8443,11 @@
       <c r="C337" t="s">
         <v>896</v>
       </c>
-      <c r="D337" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="338">
+      <c r="D337">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -8124,11 +8457,11 @@
       <c r="C338" t="s">
         <v>897</v>
       </c>
-      <c r="D338" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="339">
+      <c r="D338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -8138,11 +8471,11 @@
       <c r="C339" t="s">
         <v>898</v>
       </c>
-      <c r="D339" t="n">
-        <v>1963.0</v>
-      </c>
-    </row>
-    <row r="340">
+      <c r="D339">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -8152,11 +8485,11 @@
       <c r="C340" t="s">
         <v>899</v>
       </c>
-      <c r="D340" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="341">
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -8166,11 +8499,11 @@
       <c r="C341" t="s">
         <v>900</v>
       </c>
-      <c r="D341" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="342">
+      <c r="D341">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -8180,11 +8513,11 @@
       <c r="C342" t="s">
         <v>901</v>
       </c>
-      <c r="D342" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="343">
+      <c r="D342">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -8194,11 +8527,11 @@
       <c r="C343" t="s">
         <v>902</v>
       </c>
-      <c r="D343" t="n">
-        <v>348.0</v>
-      </c>
-    </row>
-    <row r="344">
+      <c r="D343">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -8208,11 +8541,11 @@
       <c r="C344" t="s">
         <v>903</v>
       </c>
-      <c r="D344" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="345">
+      <c r="D344">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -8222,11 +8555,11 @@
       <c r="C345" t="s">
         <v>904</v>
       </c>
-      <c r="D345" t="n">
-        <v>4111.0</v>
-      </c>
-    </row>
-    <row r="346">
+      <c r="D345">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -8236,11 +8569,11 @@
       <c r="C346" t="s">
         <v>905</v>
       </c>
-      <c r="D346" t="n">
-        <v>59581.0</v>
-      </c>
-    </row>
-    <row r="347">
+      <c r="D346">
+        <v>59581</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -8250,11 +8583,11 @@
       <c r="C347" t="s">
         <v>906</v>
       </c>
-      <c r="D347" t="n">
-        <v>7199.0</v>
-      </c>
-    </row>
-    <row r="348">
+      <c r="D347">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -8264,11 +8597,11 @@
       <c r="C348" t="s">
         <v>907</v>
       </c>
-      <c r="D348" t="n">
-        <v>238.0</v>
-      </c>
-    </row>
-    <row r="349">
+      <c r="D348">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -8278,11 +8611,11 @@
       <c r="C349" t="s">
         <v>908</v>
       </c>
-      <c r="D349" t="n">
-        <v>1970.0</v>
-      </c>
-    </row>
-    <row r="350">
+      <c r="D349">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -8292,11 +8625,11 @@
       <c r="C350" t="s">
         <v>909</v>
       </c>
-      <c r="D350" t="n">
-        <v>10077.0</v>
-      </c>
-    </row>
-    <row r="351">
+      <c r="D350">
+        <v>10077</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -8306,11 +8639,11 @@
       <c r="C351" t="s">
         <v>910</v>
       </c>
-      <c r="D351" t="n">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="352">
+      <c r="D351">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -8320,11 +8653,11 @@
       <c r="C352" t="s">
         <v>911</v>
       </c>
-      <c r="D352" t="n">
-        <v>232.0</v>
-      </c>
-    </row>
-    <row r="353">
+      <c r="D352">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -8334,11 +8667,11 @@
       <c r="C353" t="s">
         <v>912</v>
       </c>
-      <c r="D353" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="354">
+      <c r="D353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -8348,11 +8681,11 @@
       <c r="C354" t="s">
         <v>913</v>
       </c>
-      <c r="D354" t="n">
-        <v>1355.0</v>
-      </c>
-    </row>
-    <row r="355">
+      <c r="D354">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -8362,11 +8695,11 @@
       <c r="C355" t="s">
         <v>914</v>
       </c>
-      <c r="D355" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="356">
+      <c r="D355">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -8376,11 +8709,11 @@
       <c r="C356" t="s">
         <v>915</v>
       </c>
-      <c r="D356" t="n">
-        <v>690.0</v>
-      </c>
-    </row>
-    <row r="357">
+      <c r="D356">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -8390,11 +8723,11 @@
       <c r="C357" t="s">
         <v>916</v>
       </c>
-      <c r="D357" t="n">
-        <v>1424.0</v>
-      </c>
-    </row>
-    <row r="358">
+      <c r="D357">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>359</v>
       </c>
@@ -8404,11 +8737,11 @@
       <c r="C358" t="s">
         <v>917</v>
       </c>
-      <c r="D358" t="n">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="359">
+      <c r="D358">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -8418,11 +8751,11 @@
       <c r="C359" t="s">
         <v>918</v>
       </c>
-      <c r="D359" t="n">
-        <v>82946.0</v>
-      </c>
-    </row>
-    <row r="360">
+      <c r="D359">
+        <v>82946</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -8432,11 +8765,11 @@
       <c r="C360" t="s">
         <v>919</v>
       </c>
-      <c r="D360" t="n">
-        <v>11163.0</v>
-      </c>
-    </row>
-    <row r="361">
+      <c r="D360">
+        <v>11163</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -8446,11 +8779,11 @@
       <c r="C361" t="s">
         <v>920</v>
       </c>
-      <c r="D361" t="n">
-        <v>615.0</v>
-      </c>
-    </row>
-    <row r="362">
+      <c r="D361">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -8460,11 +8793,11 @@
       <c r="C362" t="s">
         <v>921</v>
       </c>
-      <c r="D362" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="363">
+      <c r="D362">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -8474,11 +8807,11 @@
       <c r="C363" t="s">
         <v>922</v>
       </c>
-      <c r="D363" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="364">
+      <c r="D363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -8488,11 +8821,11 @@
       <c r="C364" t="s">
         <v>923</v>
       </c>
-      <c r="D364" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="365">
+      <c r="D364">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -8502,11 +8835,11 @@
       <c r="C365" t="s">
         <v>924</v>
       </c>
-      <c r="D365" t="n">
-        <v>2371.0</v>
-      </c>
-    </row>
-    <row r="366">
+      <c r="D365">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -8516,11 +8849,11 @@
       <c r="C366" t="s">
         <v>925</v>
       </c>
-      <c r="D366" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="367">
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -8530,11 +8863,11 @@
       <c r="C367" t="s">
         <v>926</v>
       </c>
-      <c r="D367" t="n">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="368">
+      <c r="D367">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -8544,11 +8877,11 @@
       <c r="C368" t="s">
         <v>927</v>
       </c>
-      <c r="D368" t="n">
-        <v>2054.0</v>
-      </c>
-    </row>
-    <row r="369">
+      <c r="D368">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -8558,11 +8891,11 @@
       <c r="C369" t="s">
         <v>928</v>
       </c>
-      <c r="D369" t="n">
-        <v>2137.0</v>
-      </c>
-    </row>
-    <row r="370">
+      <c r="D369">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -8572,11 +8905,11 @@
       <c r="C370" t="s">
         <v>929</v>
       </c>
-      <c r="D370" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="371">
+      <c r="D370">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -8586,11 +8919,11 @@
       <c r="C371" t="s">
         <v>930</v>
       </c>
-      <c r="D371" t="n">
-        <v>621.0</v>
-      </c>
-    </row>
-    <row r="372">
+      <c r="D371">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -8600,11 +8933,11 @@
       <c r="C372" t="s">
         <v>931</v>
       </c>
-      <c r="D372" t="n">
-        <v>1978.0</v>
-      </c>
-    </row>
-    <row r="373">
+      <c r="D372">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -8614,11 +8947,11 @@
       <c r="C373" t="s">
         <v>932</v>
       </c>
-      <c r="D373" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="374">
+      <c r="D373">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -8628,11 +8961,11 @@
       <c r="C374" t="s">
         <v>933</v>
       </c>
-      <c r="D374" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="375">
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -8642,11 +8975,11 @@
       <c r="C375" t="s">
         <v>934</v>
       </c>
-      <c r="D375" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="376">
+      <c r="D375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -8656,11 +8989,11 @@
       <c r="C376" t="s">
         <v>935</v>
       </c>
-      <c r="D376" t="n">
-        <v>1088.0</v>
-      </c>
-    </row>
-    <row r="377">
+      <c r="D376">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -8670,11 +9003,11 @@
       <c r="C377" t="s">
         <v>936</v>
       </c>
-      <c r="D377" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="378">
+      <c r="D377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -8684,11 +9017,11 @@
       <c r="C378" t="s">
         <v>937</v>
       </c>
-      <c r="D378" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="379">
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -8698,11 +9031,11 @@
       <c r="C379" t="s">
         <v>938</v>
       </c>
-      <c r="D379" t="n">
-        <v>528.0</v>
-      </c>
-    </row>
-    <row r="380">
+      <c r="D379">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -8712,11 +9045,11 @@
       <c r="C380" t="s">
         <v>939</v>
       </c>
-      <c r="D380" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="381">
+      <c r="D380">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -8726,11 +9059,11 @@
       <c r="C381" t="s">
         <v>940</v>
       </c>
-      <c r="D381" t="n">
-        <v>8583.0</v>
-      </c>
-    </row>
-    <row r="382">
+      <c r="D381">
+        <v>8583</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -8740,11 +9073,11 @@
       <c r="C382" t="s">
         <v>941</v>
       </c>
-      <c r="D382" t="n">
-        <v>2573.0</v>
-      </c>
-    </row>
-    <row r="383">
+      <c r="D382">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -8754,11 +9087,11 @@
       <c r="C383" t="s">
         <v>942</v>
       </c>
-      <c r="D383" t="n">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="384">
+      <c r="D383">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -8768,11 +9101,11 @@
       <c r="C384" t="s">
         <v>943</v>
       </c>
-      <c r="D384" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="385">
+      <c r="D384">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -8782,11 +9115,11 @@
       <c r="C385" t="s">
         <v>944</v>
       </c>
-      <c r="D385" t="n">
-        <v>2059.0</v>
-      </c>
-    </row>
-    <row r="386">
+      <c r="D385">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -8796,11 +9129,11 @@
       <c r="C386" t="s">
         <v>945</v>
       </c>
-      <c r="D386" t="n">
-        <v>752.0</v>
-      </c>
-    </row>
-    <row r="387">
+      <c r="D386">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -8810,11 +9143,11 @@
       <c r="C387" t="s">
         <v>946</v>
       </c>
-      <c r="D387" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="388">
+      <c r="D387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -8824,11 +9157,11 @@
       <c r="C388" t="s">
         <v>947</v>
       </c>
-      <c r="D388" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="389">
+      <c r="D388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -8838,11 +9171,11 @@
       <c r="C389" t="s">
         <v>948</v>
       </c>
-      <c r="D389" t="n">
-        <v>1390.0</v>
-      </c>
-    </row>
-    <row r="390">
+      <c r="D389">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -8852,11 +9185,11 @@
       <c r="C390" t="s">
         <v>949</v>
       </c>
-      <c r="D390" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="391">
+      <c r="D390">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -8866,11 +9199,11 @@
       <c r="C391" t="s">
         <v>950</v>
       </c>
-      <c r="D391" t="n">
-        <v>1055.0</v>
-      </c>
-    </row>
-    <row r="392">
+      <c r="D391">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -8880,11 +9213,11 @@
       <c r="C392" t="s">
         <v>951</v>
       </c>
-      <c r="D392" t="n">
-        <v>137.0</v>
-      </c>
-    </row>
-    <row r="393">
+      <c r="D392">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -8894,11 +9227,11 @@
       <c r="C393" t="s">
         <v>952</v>
       </c>
-      <c r="D393" t="n">
-        <v>6032.0</v>
-      </c>
-    </row>
-    <row r="394">
+      <c r="D393">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -8908,11 +9241,11 @@
       <c r="C394" t="s">
         <v>953</v>
       </c>
-      <c r="D394" t="n">
-        <v>1284.0</v>
-      </c>
-    </row>
-    <row r="395">
+      <c r="D394">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -8922,11 +9255,11 @@
       <c r="C395" t="s">
         <v>954</v>
       </c>
-      <c r="D395" t="n">
-        <v>14277.0</v>
-      </c>
-    </row>
-    <row r="396">
+      <c r="D395">
+        <v>14277</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -8936,11 +9269,11 @@
       <c r="C396" t="s">
         <v>955</v>
       </c>
-      <c r="D396" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="397">
+      <c r="D396">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -8950,11 +9283,11 @@
       <c r="C397" t="s">
         <v>956</v>
       </c>
-      <c r="D397" t="n">
-        <v>2501.0</v>
-      </c>
-    </row>
-    <row r="398">
+      <c r="D397">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -8964,11 +9297,11 @@
       <c r="C398" t="s">
         <v>957</v>
       </c>
-      <c r="D398" t="n">
-        <v>12190.0</v>
-      </c>
-    </row>
-    <row r="399">
+      <c r="D398">
+        <v>12190</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>400</v>
       </c>
@@ -8978,11 +9311,11 @@
       <c r="C399" t="s">
         <v>958</v>
       </c>
-      <c r="D399" t="n">
-        <v>10315.0</v>
-      </c>
-    </row>
-    <row r="400">
+      <c r="D399">
+        <v>10315</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>401</v>
       </c>
@@ -8992,11 +9325,11 @@
       <c r="C400" t="s">
         <v>959</v>
       </c>
-      <c r="D400" t="n">
-        <v>3535.0</v>
-      </c>
-    </row>
-    <row r="401">
+      <c r="D400">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -9006,11 +9339,11 @@
       <c r="C401" t="s">
         <v>960</v>
       </c>
-      <c r="D401" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="402">
+      <c r="D401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -9020,11 +9353,11 @@
       <c r="C402" t="s">
         <v>961</v>
       </c>
-      <c r="D402" t="n">
-        <v>828.0</v>
-      </c>
-    </row>
-    <row r="403">
+      <c r="D402">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>404</v>
       </c>
@@ -9034,11 +9367,11 @@
       <c r="C403" t="s">
         <v>962</v>
       </c>
-      <c r="D403" t="n">
-        <v>815.0</v>
-      </c>
-    </row>
-    <row r="404">
+      <c r="D403">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>405</v>
       </c>
@@ -9048,11 +9381,11 @@
       <c r="C404" t="s">
         <v>963</v>
       </c>
-      <c r="D404" t="n">
-        <v>2337.0</v>
-      </c>
-    </row>
-    <row r="405">
+      <c r="D404">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>406</v>
       </c>
@@ -9062,11 +9395,11 @@
       <c r="C405" t="s">
         <v>964</v>
       </c>
-      <c r="D405" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="406">
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>407</v>
       </c>
@@ -9076,11 +9409,11 @@
       <c r="C406" t="s">
         <v>965</v>
       </c>
-      <c r="D406" t="n">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="407">
+      <c r="D406">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>408</v>
       </c>
@@ -9090,11 +9423,11 @@
       <c r="C407" t="s">
         <v>966</v>
       </c>
-      <c r="D407" t="n">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="408">
+      <c r="D407">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>409</v>
       </c>
@@ -9104,11 +9437,11 @@
       <c r="C408" t="s">
         <v>967</v>
       </c>
-      <c r="D408" t="n">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="409">
+      <c r="D408">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>410</v>
       </c>
@@ -9118,11 +9451,11 @@
       <c r="C409" t="s">
         <v>968</v>
       </c>
-      <c r="D409" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="410">
+      <c r="D409">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>411</v>
       </c>
@@ -9132,11 +9465,11 @@
       <c r="C410" t="s">
         <v>969</v>
       </c>
-      <c r="D410" t="n">
-        <v>445.0</v>
-      </c>
-    </row>
-    <row r="411">
+      <c r="D410">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>412</v>
       </c>
@@ -9146,11 +9479,11 @@
       <c r="C411" t="s">
         <v>970</v>
       </c>
-      <c r="D411" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="412">
+      <c r="D411">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>413</v>
       </c>
@@ -9160,11 +9493,11 @@
       <c r="C412" t="s">
         <v>971</v>
       </c>
-      <c r="D412" t="n">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="413">
+      <c r="D412">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>414</v>
       </c>
@@ -9174,11 +9507,11 @@
       <c r="C413" t="s">
         <v>972</v>
       </c>
-      <c r="D413" t="n">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="414">
+      <c r="D413">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -9188,11 +9521,11 @@
       <c r="C414" t="s">
         <v>563</v>
       </c>
-      <c r="D414" t="n">
-        <v>611.0</v>
-      </c>
-    </row>
-    <row r="415">
+      <c r="D414">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>416</v>
       </c>
@@ -9202,11 +9535,11 @@
       <c r="C415" t="s">
         <v>566</v>
       </c>
-      <c r="D415" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="416">
+      <c r="D415">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>417</v>
       </c>
@@ -9216,11 +9549,11 @@
       <c r="C416" t="s">
         <v>973</v>
       </c>
-      <c r="D416" t="n">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="417">
+      <c r="D416">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>418</v>
       </c>
@@ -9230,11 +9563,11 @@
       <c r="C417" t="s">
         <v>974</v>
       </c>
-      <c r="D417" t="n">
-        <v>12053.0</v>
-      </c>
-    </row>
-    <row r="418">
+      <c r="D417">
+        <v>12053</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>419</v>
       </c>
@@ -9244,11 +9577,11 @@
       <c r="C418" t="s">
         <v>975</v>
       </c>
-      <c r="D418" t="n">
-        <v>5533.0</v>
-      </c>
-    </row>
-    <row r="419">
+      <c r="D418">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>420</v>
       </c>
@@ -9258,11 +9591,11 @@
       <c r="C419" t="s">
         <v>976</v>
       </c>
-      <c r="D419" t="n">
-        <v>3121.0</v>
-      </c>
-    </row>
-    <row r="420">
+      <c r="D419">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>421</v>
       </c>
@@ -9272,11 +9605,11 @@
       <c r="C420" t="s">
         <v>977</v>
       </c>
-      <c r="D420" t="n">
-        <v>2730.0</v>
-      </c>
-    </row>
-    <row r="421">
+      <c r="D420">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>422</v>
       </c>
@@ -9286,11 +9619,11 @@
       <c r="C421" t="s">
         <v>978</v>
       </c>
-      <c r="D421" t="n">
-        <v>2641.0</v>
-      </c>
-    </row>
-    <row r="422">
+      <c r="D421">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>423</v>
       </c>
@@ -9300,11 +9633,11 @@
       <c r="C422" t="s">
         <v>979</v>
       </c>
-      <c r="D422" t="n">
-        <v>2261.0</v>
-      </c>
-    </row>
-    <row r="423">
+      <c r="D422">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>424</v>
       </c>
@@ -9314,11 +9647,11 @@
       <c r="C423" t="s">
         <v>980</v>
       </c>
-      <c r="D423" t="n">
-        <v>2157.0</v>
-      </c>
-    </row>
-    <row r="424">
+      <c r="D423">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>425</v>
       </c>
@@ -9328,11 +9661,11 @@
       <c r="C424" t="s">
         <v>981</v>
       </c>
-      <c r="D424" t="n">
-        <v>1824.0</v>
-      </c>
-    </row>
-    <row r="425">
+      <c r="D424">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>426</v>
       </c>
@@ -9342,11 +9675,11 @@
       <c r="C425" t="s">
         <v>982</v>
       </c>
-      <c r="D425" t="n">
-        <v>1773.0</v>
-      </c>
-    </row>
-    <row r="426">
+      <c r="D425">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>427</v>
       </c>
@@ -9356,11 +9689,11 @@
       <c r="C426" t="s">
         <v>983</v>
       </c>
-      <c r="D426" t="n">
-        <v>1469.0</v>
-      </c>
-    </row>
-    <row r="427">
+      <c r="D426">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>428</v>
       </c>
@@ -9370,11 +9703,11 @@
       <c r="C427" t="s">
         <v>984</v>
       </c>
-      <c r="D427" t="n">
-        <v>1403.0</v>
-      </c>
-    </row>
-    <row r="428">
+      <c r="D427">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>429</v>
       </c>
@@ -9384,11 +9717,11 @@
       <c r="C428" t="s">
         <v>985</v>
       </c>
-      <c r="D428" t="n">
-        <v>1198.0</v>
-      </c>
-    </row>
-    <row r="429">
+      <c r="D428">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>430</v>
       </c>
@@ -9398,11 +9731,11 @@
       <c r="C429" t="s">
         <v>986</v>
       </c>
-      <c r="D429" t="n">
-        <v>1185.0</v>
-      </c>
-    </row>
-    <row r="430">
+      <c r="D429">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>431</v>
       </c>
@@ -9412,11 +9745,11 @@
       <c r="C430" t="s">
         <v>987</v>
       </c>
-      <c r="D430" t="n">
-        <v>1167.0</v>
-      </c>
-    </row>
-    <row r="431">
+      <c r="D430">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>432</v>
       </c>
@@ -9426,11 +9759,11 @@
       <c r="C431" t="s">
         <v>988</v>
       </c>
-      <c r="D431" t="n">
-        <v>1148.0</v>
-      </c>
-    </row>
-    <row r="432">
+      <c r="D431">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>433</v>
       </c>
@@ -9440,11 +9773,11 @@
       <c r="C432" t="s">
         <v>989</v>
       </c>
-      <c r="D432" t="n">
-        <v>1020.0</v>
-      </c>
-    </row>
-    <row r="433">
+      <c r="D432">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>434</v>
       </c>
@@ -9454,11 +9787,11 @@
       <c r="C433" t="s">
         <v>990</v>
       </c>
-      <c r="D433" t="n">
-        <v>950.0</v>
-      </c>
-    </row>
-    <row r="434">
+      <c r="D433">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>435</v>
       </c>
@@ -9468,11 +9801,11 @@
       <c r="C434" t="s">
         <v>991</v>
       </c>
-      <c r="D434" t="n">
-        <v>934.0</v>
-      </c>
-    </row>
-    <row r="435">
+      <c r="D434">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>436</v>
       </c>
@@ -9482,11 +9815,11 @@
       <c r="C435" t="s">
         <v>992</v>
       </c>
-      <c r="D435" t="n">
-        <v>838.0</v>
-      </c>
-    </row>
-    <row r="436">
+      <c r="D435">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>437</v>
       </c>
@@ -9496,11 +9829,11 @@
       <c r="C436" t="s">
         <v>993</v>
       </c>
-      <c r="D436" t="n">
-        <v>796.0</v>
-      </c>
-    </row>
-    <row r="437">
+      <c r="D436">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>438</v>
       </c>
@@ -9510,11 +9843,11 @@
       <c r="C437" t="s">
         <v>994</v>
       </c>
-      <c r="D437" t="n">
-        <v>766.0</v>
-      </c>
-    </row>
-    <row r="438">
+      <c r="D437">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>439</v>
       </c>
@@ -9524,11 +9857,11 @@
       <c r="C438" t="s">
         <v>995</v>
       </c>
-      <c r="D438" t="n">
-        <v>763.0</v>
-      </c>
-    </row>
-    <row r="439">
+      <c r="D438">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>440</v>
       </c>
@@ -9538,11 +9871,11 @@
       <c r="C439" t="s">
         <v>996</v>
       </c>
-      <c r="D439" t="n">
-        <v>653.0</v>
-      </c>
-    </row>
-    <row r="440">
+      <c r="D439">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>441</v>
       </c>
@@ -9552,11 +9885,11 @@
       <c r="C440" t="s">
         <v>997</v>
       </c>
-      <c r="D440" t="n">
-        <v>646.0</v>
-      </c>
-    </row>
-    <row r="441">
+      <c r="D440">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>442</v>
       </c>
@@ -9566,11 +9899,11 @@
       <c r="C441" t="s">
         <v>998</v>
       </c>
-      <c r="D441" t="n">
-        <v>591.0</v>
-      </c>
-    </row>
-    <row r="442">
+      <c r="D441">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>443</v>
       </c>
@@ -9580,11 +9913,11 @@
       <c r="C442" t="s">
         <v>999</v>
       </c>
-      <c r="D442" t="n">
-        <v>575.0</v>
-      </c>
-    </row>
-    <row r="443">
+      <c r="D442">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>444</v>
       </c>
@@ -9594,11 +9927,11 @@
       <c r="C443" t="s">
         <v>1000</v>
       </c>
-      <c r="D443" t="n">
-        <v>541.0</v>
-      </c>
-    </row>
-    <row r="444">
+      <c r="D443">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>445</v>
       </c>
@@ -9608,11 +9941,11 @@
       <c r="C444" t="s">
         <v>1001</v>
       </c>
-      <c r="D444" t="n">
-        <v>519.0</v>
-      </c>
-    </row>
-    <row r="445">
+      <c r="D444">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>446</v>
       </c>
@@ -9622,11 +9955,11 @@
       <c r="C445" t="s">
         <v>1002</v>
       </c>
-      <c r="D445" t="n">
-        <v>409.0</v>
-      </c>
-    </row>
-    <row r="446">
+      <c r="D445">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>447</v>
       </c>
@@ -9636,11 +9969,11 @@
       <c r="C446" t="s">
         <v>1003</v>
       </c>
-      <c r="D446" t="n">
-        <v>391.0</v>
-      </c>
-    </row>
-    <row r="447">
+      <c r="D446">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>448</v>
       </c>
@@ -9650,11 +9983,11 @@
       <c r="C447" t="s">
         <v>1004</v>
       </c>
-      <c r="D447" t="n">
-        <v>346.0</v>
-      </c>
-    </row>
-    <row r="448">
+      <c r="D447">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>449</v>
       </c>
@@ -9664,11 +9997,11 @@
       <c r="C448" t="s">
         <v>1005</v>
       </c>
-      <c r="D448" t="n">
-        <v>346.0</v>
-      </c>
-    </row>
-    <row r="449">
+      <c r="D448">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>450</v>
       </c>
@@ -9678,11 +10011,11 @@
       <c r="C449" t="s">
         <v>1006</v>
       </c>
-      <c r="D449" t="n">
-        <v>344.0</v>
-      </c>
-    </row>
-    <row r="450">
+      <c r="D449">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>451</v>
       </c>
@@ -9692,11 +10025,11 @@
       <c r="C450" t="s">
         <v>1007</v>
       </c>
-      <c r="D450" t="n">
-        <v>338.0</v>
-      </c>
-    </row>
-    <row r="451">
+      <c r="D450">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>452</v>
       </c>
@@ -9706,11 +10039,11 @@
       <c r="C451" t="s">
         <v>1008</v>
       </c>
-      <c r="D451" t="n">
-        <v>336.0</v>
-      </c>
-    </row>
-    <row r="452">
+      <c r="D451">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>453</v>
       </c>
@@ -9720,11 +10053,11 @@
       <c r="C452" t="s">
         <v>1009</v>
       </c>
-      <c r="D452" t="n">
-        <v>322.0</v>
-      </c>
-    </row>
-    <row r="453">
+      <c r="D452">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>454</v>
       </c>
@@ -9734,11 +10067,11 @@
       <c r="C453" t="s">
         <v>1010</v>
       </c>
-      <c r="D453" t="n">
-        <v>302.0</v>
-      </c>
-    </row>
-    <row r="454">
+      <c r="D453">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>455</v>
       </c>
@@ -9748,11 +10081,11 @@
       <c r="C454" t="s">
         <v>1011</v>
       </c>
-      <c r="D454" t="n">
-        <v>268.0</v>
-      </c>
-    </row>
-    <row r="455">
+      <c r="D454">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>456</v>
       </c>
@@ -9762,11 +10095,11 @@
       <c r="C455" t="s">
         <v>1012</v>
       </c>
-      <c r="D455" t="n">
-        <v>249.0</v>
-      </c>
-    </row>
-    <row r="456">
+      <c r="D455">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>457</v>
       </c>
@@ -9776,11 +10109,11 @@
       <c r="C456" t="s">
         <v>1013</v>
       </c>
-      <c r="D456" t="n">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="457">
+      <c r="D456">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>458</v>
       </c>
@@ -9790,11 +10123,11 @@
       <c r="C457" t="s">
         <v>1014</v>
       </c>
-      <c r="D457" t="n">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="458">
+      <c r="D457">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>459</v>
       </c>
@@ -9804,11 +10137,11 @@
       <c r="C458" t="s">
         <v>1015</v>
       </c>
-      <c r="D458" t="n">
-        <v>196.0</v>
-      </c>
-    </row>
-    <row r="459">
+      <c r="D458">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>460</v>
       </c>
@@ -9818,11 +10151,11 @@
       <c r="C459" t="s">
         <v>1016</v>
       </c>
-      <c r="D459" t="n">
-        <v>131.0</v>
-      </c>
-    </row>
-    <row r="460">
+      <c r="D459">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>461</v>
       </c>
@@ -9832,11 +10165,11 @@
       <c r="C460" t="s">
         <v>1017</v>
       </c>
-      <c r="D460" t="n">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="461">
+      <c r="D460">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>462</v>
       </c>
@@ -9846,11 +10179,11 @@
       <c r="C461" t="s">
         <v>1018</v>
       </c>
-      <c r="D461" t="n">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="462">
+      <c r="D461">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>463</v>
       </c>
@@ -9860,11 +10193,11 @@
       <c r="C462" t="s">
         <v>1019</v>
       </c>
-      <c r="D462" t="n">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="463">
+      <c r="D462">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>464</v>
       </c>
@@ -9874,11 +10207,11 @@
       <c r="C463" t="s">
         <v>1020</v>
       </c>
-      <c r="D463" t="n">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="464">
+      <c r="D463">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>465</v>
       </c>
@@ -9888,11 +10221,11 @@
       <c r="C464" t="s">
         <v>1021</v>
       </c>
-      <c r="D464" t="n">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="465">
+      <c r="D464">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>466</v>
       </c>
@@ -9902,11 +10235,11 @@
       <c r="C465" t="s">
         <v>1022</v>
       </c>
-      <c r="D465" t="n">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="466">
+      <c r="D465">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>467</v>
       </c>
@@ -9916,11 +10249,11 @@
       <c r="C466" t="s">
         <v>1023</v>
       </c>
-      <c r="D466" t="n">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="467">
+      <c r="D466">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>468</v>
       </c>
@@ -9930,11 +10263,11 @@
       <c r="C467" t="s">
         <v>1024</v>
       </c>
-      <c r="D467" t="n">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="468">
+      <c r="D467">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>469</v>
       </c>
@@ -9944,11 +10277,11 @@
       <c r="C468" t="s">
         <v>1025</v>
       </c>
-      <c r="D468" t="n">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="469">
+      <c r="D468">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>470</v>
       </c>
@@ -9958,11 +10291,11 @@
       <c r="C469" t="s">
         <v>1026</v>
       </c>
-      <c r="D469" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="470">
+      <c r="D469">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>471</v>
       </c>
@@ -9972,11 +10305,11 @@
       <c r="C470" t="s">
         <v>1027</v>
       </c>
-      <c r="D470" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="471">
+      <c r="D470">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>472</v>
       </c>
@@ -9986,11 +10319,11 @@
       <c r="C471" t="s">
         <v>1028</v>
       </c>
-      <c r="D471" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="472">
+      <c r="D471">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>473</v>
       </c>
@@ -10000,11 +10333,11 @@
       <c r="C472" t="s">
         <v>1029</v>
       </c>
-      <c r="D472" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="473">
+      <c r="D472">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>474</v>
       </c>
@@ -10014,11 +10347,11 @@
       <c r="C473" t="s">
         <v>1030</v>
       </c>
-      <c r="D473" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="474">
+      <c r="D473">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>475</v>
       </c>
@@ -10028,11 +10361,11 @@
       <c r="C474" t="s">
         <v>1031</v>
       </c>
-      <c r="D474" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="475">
+      <c r="D474">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>476</v>
       </c>
@@ -10042,11 +10375,11 @@
       <c r="C475" t="s">
         <v>1032</v>
       </c>
-      <c r="D475" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="476">
+      <c r="D475">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>477</v>
       </c>
@@ -10056,11 +10389,11 @@
       <c r="C476" t="s">
         <v>1033</v>
       </c>
-      <c r="D476" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="477">
+      <c r="D476">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>478</v>
       </c>
@@ -10070,11 +10403,11 @@
       <c r="C477" t="s">
         <v>1034</v>
       </c>
-      <c r="D477" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="478">
+      <c r="D477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>479</v>
       </c>
@@ -10084,11 +10417,11 @@
       <c r="C478" t="s">
         <v>1035</v>
       </c>
-      <c r="D478" t="n">
-        <v>176334.0</v>
-      </c>
-    </row>
-    <row r="479">
+      <c r="D478">
+        <v>176334</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>480</v>
       </c>
@@ -10098,11 +10431,11 @@
       <c r="C479" t="s">
         <v>1036</v>
       </c>
-      <c r="D479" t="n">
-        <v>18065.0</v>
-      </c>
-    </row>
-    <row r="480">
+      <c r="D479">
+        <v>18065</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>481</v>
       </c>
@@ -10112,11 +10445,11 @@
       <c r="C480" t="s">
         <v>1037</v>
       </c>
-      <c r="D480" t="n">
-        <v>4859.0</v>
-      </c>
-    </row>
-    <row r="481">
+      <c r="D480">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>482</v>
       </c>
@@ -10126,11 +10459,11 @@
       <c r="C481" t="s">
         <v>1038</v>
       </c>
-      <c r="D481" t="n">
-        <v>3834.0</v>
-      </c>
-    </row>
-    <row r="482">
+      <c r="D481">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>483</v>
       </c>
@@ -10140,11 +10473,11 @@
       <c r="C482" t="s">
         <v>1039</v>
       </c>
-      <c r="D482" t="n">
-        <v>3732.0</v>
-      </c>
-    </row>
-    <row r="483">
+      <c r="D482">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>484</v>
       </c>
@@ -10154,11 +10487,11 @@
       <c r="C483" t="s">
         <v>1040</v>
       </c>
-      <c r="D483" t="n">
-        <v>3486.0</v>
-      </c>
-    </row>
-    <row r="484">
+      <c r="D483">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>485</v>
       </c>
@@ -10168,11 +10501,11 @@
       <c r="C484" t="s">
         <v>1041</v>
       </c>
-      <c r="D484" t="n">
-        <v>2519.0</v>
-      </c>
-    </row>
-    <row r="485">
+      <c r="D484">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>486</v>
       </c>
@@ -10182,11 +10515,11 @@
       <c r="C485" t="s">
         <v>1042</v>
       </c>
-      <c r="D485" t="n">
-        <v>2194.0</v>
-      </c>
-    </row>
-    <row r="486">
+      <c r="D485">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>487</v>
       </c>
@@ -10196,11 +10529,11 @@
       <c r="C486" t="s">
         <v>1043</v>
       </c>
-      <c r="D486" t="n">
-        <v>2164.0</v>
-      </c>
-    </row>
-    <row r="487">
+      <c r="D486">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>488</v>
       </c>
@@ -10210,11 +10543,11 @@
       <c r="C487" t="s">
         <v>1044</v>
       </c>
-      <c r="D487" t="n">
-        <v>1813.0</v>
-      </c>
-    </row>
-    <row r="488">
+      <c r="D487">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>489</v>
       </c>
@@ -10224,11 +10557,11 @@
       <c r="C488" t="s">
         <v>1045</v>
       </c>
-      <c r="D488" t="n">
-        <v>1776.0</v>
-      </c>
-    </row>
-    <row r="489">
+      <c r="D488">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>490</v>
       </c>
@@ -10238,11 +10571,11 @@
       <c r="C489" t="s">
         <v>1046</v>
       </c>
-      <c r="D489" t="n">
-        <v>1757.0</v>
-      </c>
-    </row>
-    <row r="490">
+      <c r="D489">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>491</v>
       </c>
@@ -10252,11 +10585,11 @@
       <c r="C490" t="s">
         <v>1047</v>
       </c>
-      <c r="D490" t="n">
-        <v>976.0</v>
-      </c>
-    </row>
-    <row r="491">
+      <c r="D490">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>492</v>
       </c>
@@ -10266,11 +10599,11 @@
       <c r="C491" t="s">
         <v>1048</v>
       </c>
-      <c r="D491" t="n">
-        <v>859.0</v>
-      </c>
-    </row>
-    <row r="492">
+      <c r="D491">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>493</v>
       </c>
@@ -10280,11 +10613,11 @@
       <c r="C492" t="s">
         <v>1049</v>
       </c>
-      <c r="D492" t="n">
-        <v>810.0</v>
-      </c>
-    </row>
-    <row r="493">
+      <c r="D492">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>494</v>
       </c>
@@ -10294,11 +10627,11 @@
       <c r="C493" t="s">
         <v>1050</v>
       </c>
-      <c r="D493" t="n">
-        <v>762.0</v>
-      </c>
-    </row>
-    <row r="494">
+      <c r="D493">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>495</v>
       </c>
@@ -10308,11 +10641,11 @@
       <c r="C494" t="s">
         <v>1051</v>
       </c>
-      <c r="D494" t="n">
-        <v>725.0</v>
-      </c>
-    </row>
-    <row r="495">
+      <c r="D494">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>496</v>
       </c>
@@ -10322,11 +10655,11 @@
       <c r="C495" t="s">
         <v>1052</v>
       </c>
-      <c r="D495" t="n">
-        <v>648.0</v>
-      </c>
-    </row>
-    <row r="496">
+      <c r="D495">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>497</v>
       </c>
@@ -10336,11 +10669,11 @@
       <c r="C496" t="s">
         <v>1053</v>
       </c>
-      <c r="D496" t="n">
-        <v>646.0</v>
-      </c>
-    </row>
-    <row r="497">
+      <c r="D496">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>498</v>
       </c>
@@ -10350,11 +10683,11 @@
       <c r="C497" t="s">
         <v>1054</v>
       </c>
-      <c r="D497" t="n">
-        <v>351.0</v>
-      </c>
-    </row>
-    <row r="498">
+      <c r="D497">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>499</v>
       </c>
@@ -10364,11 +10697,11 @@
       <c r="C498" t="s">
         <v>1055</v>
       </c>
-      <c r="D498" t="n">
-        <v>293.0</v>
-      </c>
-    </row>
-    <row r="499">
+      <c r="D498">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>500</v>
       </c>
@@ -10378,11 +10711,11 @@
       <c r="C499" t="s">
         <v>1056</v>
       </c>
-      <c r="D499" t="n">
-        <v>278.0</v>
-      </c>
-    </row>
-    <row r="500">
+      <c r="D499">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>501</v>
       </c>
@@ -10392,11 +10725,11 @@
       <c r="C500" t="s">
         <v>1057</v>
       </c>
-      <c r="D500" t="n">
-        <v>261.0</v>
-      </c>
-    </row>
-    <row r="501">
+      <c r="D500">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>502</v>
       </c>
@@ -10406,11 +10739,11 @@
       <c r="C501" t="s">
         <v>1058</v>
       </c>
-      <c r="D501" t="n">
-        <v>255.0</v>
-      </c>
-    </row>
-    <row r="502">
+      <c r="D501">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>503</v>
       </c>
@@ -10420,11 +10753,11 @@
       <c r="C502" t="s">
         <v>1059</v>
       </c>
-      <c r="D502" t="n">
-        <v>221.0</v>
-      </c>
-    </row>
-    <row r="503">
+      <c r="D502">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>504</v>
       </c>
@@ -10434,11 +10767,11 @@
       <c r="C503" t="s">
         <v>1060</v>
       </c>
-      <c r="D503" t="n">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="504">
+      <c r="D503">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>505</v>
       </c>
@@ -10448,11 +10781,11 @@
       <c r="C504" t="s">
         <v>1061</v>
       </c>
-      <c r="D504" t="n">
-        <v>143.0</v>
-      </c>
-    </row>
-    <row r="505">
+      <c r="D504">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>506</v>
       </c>
@@ -10462,11 +10795,11 @@
       <c r="C505" t="s">
         <v>1062</v>
       </c>
-      <c r="D505" t="n">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="506">
+      <c r="D505">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>507</v>
       </c>
@@ -10476,11 +10809,11 @@
       <c r="C506" t="s">
         <v>1063</v>
       </c>
-      <c r="D506" t="n">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="507">
+      <c r="D506">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>508</v>
       </c>
@@ -10490,11 +10823,11 @@
       <c r="C507" t="s">
         <v>1064</v>
       </c>
-      <c r="D507" t="n">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="508">
+      <c r="D507">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
         <v>509</v>
       </c>
@@ -10504,11 +10837,11 @@
       <c r="C508" t="s">
         <v>1065</v>
       </c>
-      <c r="D508" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="509">
+      <c r="D508">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
         <v>510</v>
       </c>
@@ -10518,11 +10851,11 @@
       <c r="C509" t="s">
         <v>1066</v>
       </c>
-      <c r="D509" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="510">
+      <c r="D509">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
         <v>511</v>
       </c>
@@ -10532,11 +10865,11 @@
       <c r="C510" t="s">
         <v>1067</v>
       </c>
-      <c r="D510" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="511">
+      <c r="D510">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>512</v>
       </c>
@@ -10546,11 +10879,11 @@
       <c r="C511" t="s">
         <v>1068</v>
       </c>
-      <c r="D511" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="512">
+      <c r="D511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>513</v>
       </c>
@@ -10560,11 +10893,11 @@
       <c r="C512" t="s">
         <v>1069</v>
       </c>
-      <c r="D512" t="n">
-        <v>11518.0</v>
-      </c>
-    </row>
-    <row r="513">
+      <c r="D512">
+        <v>11518</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>514</v>
       </c>
@@ -10574,11 +10907,11 @@
       <c r="C513" t="s">
         <v>1070</v>
       </c>
-      <c r="D513" t="n">
-        <v>10372.0</v>
-      </c>
-    </row>
-    <row r="514">
+      <c r="D513">
+        <v>10372</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>515</v>
       </c>
@@ -10588,11 +10921,11 @@
       <c r="C514" t="s">
         <v>1071</v>
       </c>
-      <c r="D514" t="n">
-        <v>5120.0</v>
-      </c>
-    </row>
-    <row r="515">
+      <c r="D514">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>516</v>
       </c>
@@ -10602,11 +10935,11 @@
       <c r="C515" t="s">
         <v>1072</v>
       </c>
-      <c r="D515" t="n">
-        <v>4592.0</v>
-      </c>
-    </row>
-    <row r="516">
+      <c r="D515">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>517</v>
       </c>
@@ -10616,11 +10949,11 @@
       <c r="C516" t="s">
         <v>1073</v>
       </c>
-      <c r="D516" t="n">
-        <v>3721.0</v>
-      </c>
-    </row>
-    <row r="517">
+      <c r="D516">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>518</v>
       </c>
@@ -10630,11 +10963,11 @@
       <c r="C517" t="s">
         <v>1074</v>
       </c>
-      <c r="D517" t="n">
-        <v>2957.0</v>
-      </c>
-    </row>
-    <row r="518">
+      <c r="D517">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>519</v>
       </c>
@@ -10644,11 +10977,11 @@
       <c r="C518" t="s">
         <v>1075</v>
       </c>
-      <c r="D518" t="n">
-        <v>2643.0</v>
-      </c>
-    </row>
-    <row r="519">
+      <c r="D518">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>520</v>
       </c>
@@ -10658,11 +10991,11 @@
       <c r="C519" t="s">
         <v>1076</v>
       </c>
-      <c r="D519" t="n">
-        <v>2402.0</v>
-      </c>
-    </row>
-    <row r="520">
+      <c r="D519">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>521</v>
       </c>
@@ -10672,11 +11005,11 @@
       <c r="C520" t="s">
         <v>1077</v>
       </c>
-      <c r="D520" t="n">
-        <v>1774.0</v>
-      </c>
-    </row>
-    <row r="521">
+      <c r="D520">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>522</v>
       </c>
@@ -10686,11 +11019,11 @@
       <c r="C521" t="s">
         <v>1078</v>
       </c>
-      <c r="D521" t="n">
-        <v>1355.0</v>
-      </c>
-    </row>
-    <row r="522">
+      <c r="D521">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>523</v>
       </c>
@@ -10700,11 +11033,11 @@
       <c r="C522" t="s">
         <v>1079</v>
       </c>
-      <c r="D522" t="n">
-        <v>1174.0</v>
-      </c>
-    </row>
-    <row r="523">
+      <c r="D522">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
         <v>524</v>
       </c>
@@ -10714,11 +11047,11 @@
       <c r="C523" t="s">
         <v>1080</v>
       </c>
-      <c r="D523" t="n">
-        <v>910.0</v>
-      </c>
-    </row>
-    <row r="524">
+      <c r="D523">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>525</v>
       </c>
@@ -10728,11 +11061,11 @@
       <c r="C524" t="s">
         <v>1081</v>
       </c>
-      <c r="D524" t="n">
-        <v>886.0</v>
-      </c>
-    </row>
-    <row r="525">
+      <c r="D524">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>526</v>
       </c>
@@ -10742,11 +11075,11 @@
       <c r="C525" t="s">
         <v>1082</v>
       </c>
-      <c r="D525" t="n">
-        <v>814.0</v>
-      </c>
-    </row>
-    <row r="526">
+      <c r="D525">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>527</v>
       </c>
@@ -10756,11 +11089,11 @@
       <c r="C526" t="s">
         <v>1083</v>
       </c>
-      <c r="D526" t="n">
-        <v>459.0</v>
-      </c>
-    </row>
-    <row r="527">
+      <c r="D526">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>528</v>
       </c>
@@ -10770,11 +11103,11 @@
       <c r="C527" t="s">
         <v>1084</v>
       </c>
-      <c r="D527" t="n">
-        <v>412.0</v>
-      </c>
-    </row>
-    <row r="528">
+      <c r="D527">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>529</v>
       </c>
@@ -10784,11 +11117,11 @@
       <c r="C528" t="s">
         <v>1085</v>
       </c>
-      <c r="D528" t="n">
-        <v>410.0</v>
-      </c>
-    </row>
-    <row r="529">
+      <c r="D528">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>530</v>
       </c>
@@ -10798,11 +11131,11 @@
       <c r="C529" t="s">
         <v>1086</v>
       </c>
-      <c r="D529" t="n">
-        <v>371.0</v>
-      </c>
-    </row>
-    <row r="530">
+      <c r="D529">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>531</v>
       </c>
@@ -10812,11 +11145,11 @@
       <c r="C530" t="s">
         <v>1087</v>
       </c>
-      <c r="D530" t="n">
-        <v>332.0</v>
-      </c>
-    </row>
-    <row r="531">
+      <c r="D530">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>532</v>
       </c>
@@ -10826,11 +11159,11 @@
       <c r="C531" t="s">
         <v>1088</v>
       </c>
-      <c r="D531" t="n">
-        <v>290.0</v>
-      </c>
-    </row>
-    <row r="532">
+      <c r="D531">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>533</v>
       </c>
@@ -10840,11 +11173,11 @@
       <c r="C532" t="s">
         <v>1089</v>
       </c>
-      <c r="D532" t="n">
-        <v>275.0</v>
-      </c>
-    </row>
-    <row r="533">
+      <c r="D532">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
       <c r="A533" t="s">
         <v>534</v>
       </c>
@@ -10854,11 +11187,11 @@
       <c r="C533" t="s">
         <v>1090</v>
       </c>
-      <c r="D533" t="n">
-        <v>263.0</v>
-      </c>
-    </row>
-    <row r="534">
+      <c r="D533">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>535</v>
       </c>
@@ -10868,11 +11201,11 @@
       <c r="C534" t="s">
         <v>1091</v>
       </c>
-      <c r="D534" t="n">
-        <v>255.0</v>
-      </c>
-    </row>
-    <row r="535">
+      <c r="D534">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>536</v>
       </c>
@@ -10882,11 +11215,11 @@
       <c r="C535" t="s">
         <v>1092</v>
       </c>
-      <c r="D535" t="n">
-        <v>245.0</v>
-      </c>
-    </row>
-    <row r="536">
+      <c r="D535">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>537</v>
       </c>
@@ -10896,11 +11229,11 @@
       <c r="C536" t="s">
         <v>1093</v>
       </c>
-      <c r="D536" t="n">
-        <v>199.0</v>
-      </c>
-    </row>
-    <row r="537">
+      <c r="D536">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>538</v>
       </c>
@@ -10910,11 +11243,11 @@
       <c r="C537" t="s">
         <v>1094</v>
       </c>
-      <c r="D537" t="n">
-        <v>195.0</v>
-      </c>
-    </row>
-    <row r="538">
+      <c r="D537">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>539</v>
       </c>
@@ -10924,11 +11257,11 @@
       <c r="C538" t="s">
         <v>1095</v>
       </c>
-      <c r="D538" t="n">
-        <v>192.0</v>
-      </c>
-    </row>
-    <row r="539">
+      <c r="D538">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>540</v>
       </c>
@@ -10938,11 +11271,11 @@
       <c r="C539" t="s">
         <v>1096</v>
       </c>
-      <c r="D539" t="n">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="540">
+      <c r="D539">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>541</v>
       </c>
@@ -10952,11 +11285,11 @@
       <c r="C540" t="s">
         <v>1097</v>
       </c>
-      <c r="D540" t="n">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="541">
+      <c r="D540">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>542</v>
       </c>
@@ -10966,11 +11299,11 @@
       <c r="C541" t="s">
         <v>1098</v>
       </c>
-      <c r="D541" t="n">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="542">
+      <c r="D541">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>543</v>
       </c>
@@ -10980,11 +11313,11 @@
       <c r="C542" t="s">
         <v>1099</v>
       </c>
-      <c r="D542" t="n">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="543">
+      <c r="D542">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>544</v>
       </c>
@@ -10994,11 +11327,11 @@
       <c r="C543" t="s">
         <v>1100</v>
       </c>
-      <c r="D543" t="n">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="544">
+      <c r="D543">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>545</v>
       </c>
@@ -11008,11 +11341,11 @@
       <c r="C544" t="s">
         <v>1101</v>
       </c>
-      <c r="D544" t="n">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="545">
+      <c r="D544">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>546</v>
       </c>
@@ -11022,11 +11355,11 @@
       <c r="C545" t="s">
         <v>1102</v>
       </c>
-      <c r="D545" t="n">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="546">
+      <c r="D545">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>547</v>
       </c>
@@ -11036,11 +11369,11 @@
       <c r="C546" t="s">
         <v>1103</v>
       </c>
-      <c r="D546" t="n">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="547">
+      <c r="D546">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>548</v>
       </c>
@@ -11050,11 +11383,11 @@
       <c r="C547" t="s">
         <v>1104</v>
       </c>
-      <c r="D547" t="n">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="548">
+      <c r="D547">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>549</v>
       </c>
@@ -11064,11 +11397,11 @@
       <c r="C548" t="s">
         <v>1105</v>
       </c>
-      <c r="D548" t="n">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="549">
+      <c r="D548">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>550</v>
       </c>
@@ -11078,11 +11411,11 @@
       <c r="C549" t="s">
         <v>1106</v>
       </c>
-      <c r="D549" t="n">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="550">
+      <c r="D549">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>551</v>
       </c>
@@ -11092,11 +11425,11 @@
       <c r="C550" t="s">
         <v>1107</v>
       </c>
-      <c r="D550" t="n">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="551">
+      <c r="D550">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>552</v>
       </c>
@@ -11106,11 +11439,11 @@
       <c r="C551" t="s">
         <v>1108</v>
       </c>
-      <c r="D551" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="552">
+      <c r="D551">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>553</v>
       </c>
@@ -11120,11 +11453,11 @@
       <c r="C552" t="s">
         <v>1109</v>
       </c>
-      <c r="D552" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="553">
+      <c r="D552">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>554</v>
       </c>
@@ -11134,11 +11467,11 @@
       <c r="C553" t="s">
         <v>1110</v>
       </c>
-      <c r="D553" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="554">
+      <c r="D553">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>555</v>
       </c>
@@ -11148,11 +11481,16 @@
       <c r="C554" t="s">
         <v>1111</v>
       </c>
-      <c r="D554" t="n">
-        <v>8.0</v>
+      <c r="D554">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>